--- a/Hoàng/SALE/BÁO GIÁ KSK 2025 - THAM KHẢO.xlsx
+++ b/Hoàng/SALE/BÁO GIÁ KSK 2025 - THAM KHẢO.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DATA_TN\Hoàng\SALE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\DATA-TN\Hoàng\SALE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37EB70C8-332E-4A41-9596-D293637A52DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E949AEE-309F-4264-859D-80E5589003BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BÁO GIÁ KSK" sheetId="4" r:id="rId1"/>
@@ -1332,13 +1332,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1358,7 +1358,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1883,7 +1883,7 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="186">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -2214,197 +2214,197 @@
     <xf numFmtId="3" fontId="11" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="21" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="13" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="13" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="13" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="14" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="14" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="14" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="14" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="14" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="14" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="13" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="13" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="13" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="21" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2772,66 +2772,66 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46C4EFAC-5358-4031-B8BC-663929F6ADDF}">
   <dimension ref="A1:K233"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A201" zoomScale="60" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="D205" sqref="D205"/>
+    <sheetView tabSelected="1" topLeftCell="A204" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="L206" sqref="L206"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.25" style="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.4140625" style="18" customWidth="1"/>
-    <col min="3" max="3" width="53.25" style="9" customWidth="1"/>
-    <col min="4" max="4" width="48.58203125" style="9" customWidth="1"/>
-    <col min="5" max="5" width="13.4140625" style="19" customWidth="1"/>
-    <col min="6" max="6" width="28.25" style="20" customWidth="1"/>
-    <col min="7" max="7" width="19.75" style="9" customWidth="1"/>
-    <col min="8" max="8" width="9.83203125" style="9" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.1640625" style="9"/>
+    <col min="1" max="1" width="6.28515625" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" style="18" customWidth="1"/>
+    <col min="3" max="3" width="53.28515625" style="9" customWidth="1"/>
+    <col min="4" max="4" width="48.5703125" style="9" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" style="19" customWidth="1"/>
+    <col min="6" max="6" width="28.28515625" style="20" customWidth="1"/>
+    <col min="7" max="7" width="19.7109375" style="9" customWidth="1"/>
+    <col min="8" max="8" width="9.85546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A1" s="22"/>
       <c r="B1" s="22"/>
       <c r="C1" s="22"/>
-      <c r="D1" s="164" t="s">
+      <c r="D1" s="125" t="s">
         <v>312</v>
       </c>
-      <c r="E1" s="164"/>
-      <c r="F1" s="164"/>
-    </row>
-    <row r="2" spans="1:11" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="E1" s="125"/>
+      <c r="F1" s="125"/>
+    </row>
+    <row r="2" spans="1:11" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A2" s="24"/>
       <c r="B2" s="24"/>
       <c r="C2" s="24"/>
-      <c r="D2" s="165"/>
-      <c r="E2" s="165"/>
-      <c r="F2" s="165"/>
-    </row>
-    <row r="3" spans="1:11" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="D2" s="126"/>
+      <c r="E2" s="126"/>
+      <c r="F2" s="126"/>
+    </row>
+    <row r="3" spans="1:11" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A3" s="24"/>
       <c r="B3" s="24"/>
       <c r="C3" s="24"/>
-      <c r="D3" s="165"/>
-      <c r="E3" s="165"/>
-      <c r="F3" s="165"/>
-    </row>
-    <row r="4" spans="1:11" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="D3" s="126"/>
+      <c r="E3" s="126"/>
+      <c r="F3" s="126"/>
+    </row>
+    <row r="4" spans="1:11" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A4" s="24"/>
       <c r="B4" s="24"/>
       <c r="C4" s="24"/>
-      <c r="D4" s="165"/>
-      <c r="E4" s="165"/>
-      <c r="F4" s="165"/>
-    </row>
-    <row r="5" spans="1:11" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="D4" s="126"/>
+      <c r="E4" s="126"/>
+      <c r="F4" s="126"/>
+    </row>
+    <row r="5" spans="1:11" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A5" s="24"/>
       <c r="B5" s="24"/>
       <c r="C5" s="24"/>
-      <c r="D5" s="165"/>
-      <c r="E5" s="165"/>
-      <c r="F5" s="165"/>
-    </row>
-    <row r="6" spans="1:11" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="D5" s="126"/>
+      <c r="E5" s="126"/>
+      <c r="F5" s="126"/>
+    </row>
+    <row r="6" spans="1:11" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A6" s="23"/>
       <c r="B6" s="25"/>
       <c r="C6" s="25"/>
@@ -2839,22 +2839,22 @@
       <c r="E6" s="26"/>
       <c r="F6" s="23"/>
     </row>
-    <row r="7" spans="1:11" s="3" customFormat="1" ht="17.5" x14ac:dyDescent="0.3">
-      <c r="A7" s="166" t="s">
+    <row r="7" spans="1:11" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="127" t="s">
         <v>418</v>
       </c>
-      <c r="B7" s="166"/>
-      <c r="C7" s="166"/>
-      <c r="D7" s="166"/>
-      <c r="E7" s="166"/>
-      <c r="F7" s="166"/>
+      <c r="B7" s="127"/>
+      <c r="C7" s="127"/>
+      <c r="D7" s="127"/>
+      <c r="E7" s="127"/>
+      <c r="F7" s="127"/>
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
       <c r="K7" s="6"/>
     </row>
-    <row r="8" spans="1:11" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A8" s="27"/>
       <c r="B8" s="27"/>
       <c r="C8" s="27"/>
@@ -2867,49 +2867,49 @@
       <c r="J8" s="6"/>
       <c r="K8" s="6"/>
     </row>
-    <row r="9" spans="1:11" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A9" s="28"/>
-      <c r="B9" s="167" t="s">
+      <c r="B9" s="128" t="s">
         <v>38</v>
       </c>
-      <c r="C9" s="167"/>
-      <c r="D9" s="167"/>
-      <c r="E9" s="167"/>
-      <c r="F9" s="167"/>
+      <c r="C9" s="128"/>
+      <c r="D9" s="128"/>
+      <c r="E9" s="128"/>
+      <c r="F9" s="128"/>
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
       <c r="I9" s="7"/>
       <c r="J9" s="7"/>
     </row>
-    <row r="10" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="168" t="s">
+    <row r="10" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="129" t="s">
         <v>39</v>
       </c>
-      <c r="B10" s="169"/>
-      <c r="C10" s="169"/>
-      <c r="D10" s="169"/>
-      <c r="E10" s="169"/>
-      <c r="F10" s="170"/>
+      <c r="B10" s="130"/>
+      <c r="C10" s="130"/>
+      <c r="D10" s="130"/>
+      <c r="E10" s="130"/>
+      <c r="F10" s="131"/>
       <c r="G10" s="8"/>
       <c r="H10" s="8"/>
       <c r="I10" s="8"/>
       <c r="J10" s="8"/>
       <c r="K10" s="8"/>
     </row>
-    <row r="11" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="171"/>
-      <c r="B11" s="172"/>
-      <c r="C11" s="172"/>
-      <c r="D11" s="172"/>
-      <c r="E11" s="172"/>
-      <c r="F11" s="173"/>
+    <row r="11" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="132"/>
+      <c r="B11" s="133"/>
+      <c r="C11" s="133"/>
+      <c r="D11" s="133"/>
+      <c r="E11" s="133"/>
+      <c r="F11" s="134"/>
       <c r="G11" s="21"/>
       <c r="H11" s="21"/>
       <c r="I11" s="21"/>
       <c r="J11" s="21"/>
       <c r="K11" s="21"/>
     </row>
-    <row r="12" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A12" s="29"/>
       <c r="B12" s="30"/>
       <c r="C12" s="29"/>
@@ -2917,14 +2917,14 @@
       <c r="E12" s="31"/>
       <c r="F12" s="32"/>
     </row>
-    <row r="13" spans="1:11" ht="33" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:11" ht="33" x14ac:dyDescent="0.25">
       <c r="A13" s="33" t="s">
         <v>259</v>
       </c>
-      <c r="B13" s="174" t="s">
+      <c r="B13" s="135" t="s">
         <v>2</v>
       </c>
-      <c r="C13" s="174"/>
+      <c r="C13" s="135"/>
       <c r="D13" s="33" t="s">
         <v>3</v>
       </c>
@@ -2936,82 +2936,82 @@
       </c>
       <c r="G13" s="10"/>
     </row>
-    <row r="14" spans="1:11" ht="33" x14ac:dyDescent="0.35">
-      <c r="A14" s="175">
+    <row r="14" spans="1:11" ht="49.5" x14ac:dyDescent="0.25">
+      <c r="A14" s="136">
         <f>IF(LEN(C14)=0,"",COUNTA($C$14:C14))</f>
         <v>1</v>
       </c>
-      <c r="B14" s="143" t="s">
+      <c r="B14" s="139" t="s">
         <v>1</v>
       </c>
-      <c r="C14" s="178" t="s">
+      <c r="C14" s="142" t="s">
         <v>326</v>
       </c>
       <c r="D14" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="E14" s="134">
+      <c r="E14" s="145">
         <v>200000</v>
       </c>
-      <c r="F14" s="181"/>
+      <c r="F14" s="148"/>
       <c r="G14" s="11"/>
     </row>
-    <row r="15" spans="1:11" ht="33" x14ac:dyDescent="0.35">
-      <c r="A15" s="176"/>
-      <c r="B15" s="144"/>
-      <c r="C15" s="179"/>
+    <row r="15" spans="1:11" ht="49.5" x14ac:dyDescent="0.25">
+      <c r="A15" s="137"/>
+      <c r="B15" s="140"/>
+      <c r="C15" s="143"/>
       <c r="D15" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="E15" s="135"/>
-      <c r="F15" s="182"/>
+      <c r="E15" s="146"/>
+      <c r="F15" s="149"/>
       <c r="G15" s="11"/>
     </row>
-    <row r="16" spans="1:11" ht="33" x14ac:dyDescent="0.35">
-      <c r="A16" s="176"/>
-      <c r="B16" s="144"/>
-      <c r="C16" s="179"/>
+    <row r="16" spans="1:11" ht="33" x14ac:dyDescent="0.25">
+      <c r="A16" s="137"/>
+      <c r="B16" s="140"/>
+      <c r="C16" s="143"/>
       <c r="D16" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="E16" s="135"/>
-      <c r="F16" s="182"/>
+      <c r="E16" s="146"/>
+      <c r="F16" s="149"/>
       <c r="G16" s="11"/>
     </row>
-    <row r="17" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A17" s="176"/>
-      <c r="B17" s="144"/>
-      <c r="C17" s="179"/>
+    <row r="17" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A17" s="137"/>
+      <c r="B17" s="140"/>
+      <c r="C17" s="143"/>
       <c r="D17" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="E17" s="135"/>
-      <c r="F17" s="182"/>
+      <c r="E17" s="146"/>
+      <c r="F17" s="149"/>
       <c r="G17" s="12"/>
     </row>
-    <row r="18" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A18" s="176"/>
-      <c r="B18" s="144"/>
-      <c r="C18" s="179"/>
+    <row r="18" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A18" s="137"/>
+      <c r="B18" s="140"/>
+      <c r="C18" s="143"/>
       <c r="D18" s="35" t="s">
         <v>411</v>
       </c>
-      <c r="E18" s="135"/>
-      <c r="F18" s="182"/>
+      <c r="E18" s="146"/>
+      <c r="F18" s="149"/>
       <c r="G18" s="12"/>
     </row>
-    <row r="19" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A19" s="177"/>
-      <c r="B19" s="145"/>
-      <c r="C19" s="180"/>
+    <row r="19" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A19" s="138"/>
+      <c r="B19" s="141"/>
+      <c r="C19" s="144"/>
       <c r="D19" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="E19" s="136"/>
-      <c r="F19" s="183"/>
+      <c r="E19" s="147"/>
+      <c r="F19" s="150"/>
       <c r="G19" s="12"/>
     </row>
-    <row r="20" spans="1:7" ht="33" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" ht="33" x14ac:dyDescent="0.25">
       <c r="A20" s="37">
         <f>IF(LEN(C20)=0,"",COUNTA($C$14:C20))</f>
         <v>2</v>
@@ -3031,7 +3031,7 @@
       <c r="F20" s="40"/>
       <c r="G20" s="12"/>
     </row>
-    <row r="21" spans="1:7" ht="49.5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A21" s="37">
         <f>IF(LEN(C21)=0,"",COUNTA($C$14:C21))</f>
         <v>3</v>
@@ -3051,7 +3051,7 @@
       <c r="F21" s="40"/>
       <c r="G21" s="12"/>
     </row>
-    <row r="22" spans="1:7" ht="49.5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7" ht="66" x14ac:dyDescent="0.25">
       <c r="A22" s="37">
         <f>IF(LEN(C22)=0,"",COUNTA($C$14:C22))</f>
         <v>4</v>
@@ -3071,7 +3071,7 @@
       <c r="F22" s="40"/>
       <c r="G22" s="12"/>
     </row>
-    <row r="23" spans="1:7" ht="33" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A23" s="37">
         <f>IF(LEN(C23)=0,"",COUNTA($C$14:C23))</f>
         <v>5</v>
@@ -3091,12 +3091,12 @@
       <c r="F23" s="40"/>
       <c r="G23" s="12"/>
     </row>
-    <row r="24" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="37">
         <f>IF(LEN(C24)=0,"",COUNTA($C$14:C24))</f>
         <v>6</v>
       </c>
-      <c r="B24" s="146" t="s">
+      <c r="B24" s="151" t="s">
         <v>40</v>
       </c>
       <c r="C24" s="41" t="s">
@@ -3105,31 +3105,31 @@
       <c r="D24" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="E24" s="184">
+      <c r="E24" s="152">
         <v>60000</v>
       </c>
-      <c r="F24" s="156" t="s">
+      <c r="F24" s="154" t="s">
         <v>381</v>
       </c>
       <c r="G24" s="12"/>
     </row>
-    <row r="25" spans="1:7" ht="33" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:7" ht="33" x14ac:dyDescent="0.25">
       <c r="A25" s="37">
         <f>IF(LEN(C25)=0,"",COUNTA($C$14:C25))</f>
         <v>7</v>
       </c>
-      <c r="B25" s="146"/>
+      <c r="B25" s="151"/>
       <c r="C25" s="41" t="s">
         <v>43</v>
       </c>
       <c r="D25" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="E25" s="185"/>
-      <c r="F25" s="157"/>
+      <c r="E25" s="153"/>
+      <c r="F25" s="155"/>
       <c r="G25" s="12"/>
     </row>
-    <row r="26" spans="1:7" ht="49.5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:7" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A26" s="37">
         <f>IF(LEN(C26)=0,"",COUNTA($C$14:C26))</f>
         <v>8</v>
@@ -3149,7 +3149,7 @@
       <c r="F26" s="40"/>
       <c r="G26" s="12"/>
     </row>
-    <row r="27" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A27" s="37">
         <f>IF(LEN(C27)=0,"",COUNTA($C$14:C27))</f>
         <v>9</v>
@@ -3167,13 +3167,13 @@
       <c r="F27" s="40"/>
       <c r="G27" s="12"/>
     </row>
-    <row r="28" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A28" s="161" t="s">
+    <row r="28" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A28" s="122" t="s">
         <v>26</v>
       </c>
-      <c r="B28" s="163"/>
-      <c r="C28" s="163"/>
-      <c r="D28" s="162"/>
+      <c r="B28" s="123"/>
+      <c r="C28" s="123"/>
+      <c r="D28" s="124"/>
       <c r="E28" s="121">
         <f>SUM(E14:E27)</f>
         <v>564000</v>
@@ -3181,7 +3181,7 @@
       <c r="F28" s="47"/>
       <c r="G28" s="12"/>
     </row>
-    <row r="29" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A29" s="48"/>
       <c r="B29" s="49"/>
       <c r="C29" s="50"/>
@@ -3190,7 +3190,7 @@
       <c r="F29" s="52"/>
       <c r="G29" s="12"/>
     </row>
-    <row r="30" spans="1:7" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:7" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A30" s="53" t="s">
         <v>47</v>
       </c>
@@ -3201,7 +3201,7 @@
       <c r="F30" s="55"/>
       <c r="G30" s="13"/>
     </row>
-    <row r="31" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A31" s="56"/>
       <c r="B31" s="57"/>
       <c r="C31" s="58"/>
@@ -3210,14 +3210,14 @@
       <c r="F31" s="60"/>
       <c r="G31" s="12"/>
     </row>
-    <row r="32" spans="1:7" ht="33" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:7" ht="33" x14ac:dyDescent="0.25">
       <c r="A32" s="61" t="s">
         <v>259</v>
       </c>
-      <c r="B32" s="161" t="s">
+      <c r="B32" s="122" t="s">
         <v>2</v>
       </c>
-      <c r="C32" s="162"/>
+      <c r="C32" s="124"/>
       <c r="D32" s="61" t="s">
         <v>3</v>
       </c>
@@ -3229,7 +3229,7 @@
       </c>
       <c r="G32" s="12"/>
     </row>
-    <row r="33" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A33" s="62" t="s">
         <v>209</v>
       </c>
@@ -3240,7 +3240,7 @@
       <c r="F33" s="67"/>
       <c r="G33" s="12"/>
     </row>
-    <row r="34" spans="1:7" ht="33" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:7" ht="33" x14ac:dyDescent="0.25">
       <c r="A34" s="37">
         <f>IF(LEN(C34)=0,"",COUNTA($C$34:C34))</f>
         <v>1</v>
@@ -3260,7 +3260,7 @@
       <c r="F34" s="40"/>
       <c r="G34" s="12"/>
     </row>
-    <row r="35" spans="1:7" ht="33" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:7" ht="33" x14ac:dyDescent="0.25">
       <c r="A35" s="37">
         <f>IF(LEN(C35)=0,"",COUNTA($C$34:C35))</f>
         <v>2</v>
@@ -3280,7 +3280,7 @@
       <c r="F35" s="40"/>
       <c r="G35" s="12"/>
     </row>
-    <row r="36" spans="1:7" ht="49.5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:7" ht="66" x14ac:dyDescent="0.25">
       <c r="A36" s="37">
         <f>IF(LEN(C36)=0,"",COUNTA($C$34:C36))</f>
         <v>3</v>
@@ -3300,7 +3300,7 @@
       <c r="F36" s="40"/>
       <c r="G36" s="12"/>
     </row>
-    <row r="37" spans="1:7" ht="33" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:7" ht="33" x14ac:dyDescent="0.25">
       <c r="A37" s="37">
         <f>IF(LEN(C37)=0,"",COUNTA($C$34:C37))</f>
         <v>4</v>
@@ -3320,12 +3320,12 @@
       <c r="F37" s="40"/>
       <c r="G37" s="12"/>
     </row>
-    <row r="38" spans="1:7" ht="33" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:7" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A38" s="37">
         <f>IF(LEN(C38)=0,"",COUNTA($C$34:C38))</f>
         <v>5</v>
       </c>
-      <c r="B38" s="143" t="s">
+      <c r="B38" s="139" t="s">
         <v>44</v>
       </c>
       <c r="C38" s="41" t="s">
@@ -3342,12 +3342,12 @@
       </c>
       <c r="G38" s="12"/>
     </row>
-    <row r="39" spans="1:7" ht="33" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:7" ht="33" x14ac:dyDescent="0.25">
       <c r="A39" s="37">
         <f>IF(LEN(C39)=0,"",COUNTA($C$34:C39))</f>
         <v>6</v>
       </c>
-      <c r="B39" s="145"/>
+      <c r="B39" s="141"/>
       <c r="C39" s="41" t="s">
         <v>274</v>
       </c>
@@ -3362,12 +3362,12 @@
       </c>
       <c r="G39" s="12"/>
     </row>
-    <row r="40" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="37">
         <f>IF(LEN(C40)=0,"",COUNTA($C$34:C40))</f>
         <v>7</v>
       </c>
-      <c r="B40" s="153" t="s">
+      <c r="B40" s="156" t="s">
         <v>60</v>
       </c>
       <c r="C40" s="41" t="s">
@@ -3379,17 +3379,17 @@
       <c r="E40" s="69">
         <v>41000</v>
       </c>
-      <c r="F40" s="128" t="s">
+      <c r="F40" s="157" t="s">
         <v>377</v>
       </c>
       <c r="G40" s="12"/>
     </row>
-    <row r="41" spans="1:7" ht="33" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:7" ht="33" x14ac:dyDescent="0.25">
       <c r="A41" s="37">
         <f>IF(LEN(C41)=0,"",COUNTA($C$34:C41))</f>
         <v>8</v>
       </c>
-      <c r="B41" s="153"/>
+      <c r="B41" s="156"/>
       <c r="C41" s="41" t="s">
         <v>63</v>
       </c>
@@ -3399,15 +3399,15 @@
       <c r="E41" s="69">
         <v>59000</v>
       </c>
-      <c r="F41" s="129"/>
+      <c r="F41" s="158"/>
       <c r="G41" s="12"/>
     </row>
-    <row r="42" spans="1:7" ht="33" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:7" ht="33" x14ac:dyDescent="0.25">
       <c r="A42" s="37">
         <f>IF(LEN(C42)=0,"",COUNTA($C$34:C42))</f>
         <v>9</v>
       </c>
-      <c r="B42" s="153"/>
+      <c r="B42" s="156"/>
       <c r="C42" s="41" t="s">
         <v>65</v>
       </c>
@@ -3417,15 +3417,15 @@
       <c r="E42" s="69">
         <v>59000</v>
       </c>
-      <c r="F42" s="129"/>
+      <c r="F42" s="158"/>
       <c r="G42" s="12"/>
     </row>
-    <row r="43" spans="1:7" ht="33" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:7" ht="33" x14ac:dyDescent="0.25">
       <c r="A43" s="37">
         <f>IF(LEN(C43)=0,"",COUNTA($C$34:C43))</f>
         <v>10</v>
       </c>
-      <c r="B43" s="153"/>
+      <c r="B43" s="156"/>
       <c r="C43" s="41" t="s">
         <v>67</v>
       </c>
@@ -3435,15 +3435,15 @@
       <c r="E43" s="69">
         <v>47000</v>
       </c>
-      <c r="F43" s="129"/>
+      <c r="F43" s="158"/>
       <c r="G43" s="12"/>
     </row>
-    <row r="44" spans="1:7" ht="33" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:7" ht="33" x14ac:dyDescent="0.25">
       <c r="A44" s="37">
         <f>IF(LEN(C44)=0,"",COUNTA($C$34:C44))</f>
         <v>11</v>
       </c>
-      <c r="B44" s="153"/>
+      <c r="B44" s="156"/>
       <c r="C44" s="41" t="s">
         <v>69</v>
       </c>
@@ -3453,10 +3453,10 @@
       <c r="E44" s="69">
         <v>41000</v>
       </c>
-      <c r="F44" s="130"/>
+      <c r="F44" s="159"/>
       <c r="G44" s="12"/>
     </row>
-    <row r="45" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:7" ht="33" x14ac:dyDescent="0.25">
       <c r="A45" s="37">
         <f>IF(LEN(C45)=0,"",COUNTA($C$34:C45))</f>
         <v>12</v>
@@ -3476,12 +3476,12 @@
       <c r="F45" s="40"/>
       <c r="G45" s="12"/>
     </row>
-    <row r="46" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="37">
         <f>IF(LEN(C46)=0,"",COUNTA($C$34:C46))</f>
         <v>13</v>
       </c>
-      <c r="B46" s="143" t="s">
+      <c r="B46" s="139" t="s">
         <v>277</v>
       </c>
       <c r="C46" s="35" t="s">
@@ -3493,17 +3493,17 @@
       <c r="E46" s="72">
         <v>62000</v>
       </c>
-      <c r="F46" s="128" t="s">
+      <c r="F46" s="157" t="s">
         <v>378</v>
       </c>
       <c r="G46" s="12"/>
     </row>
-    <row r="47" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A47" s="37">
         <f>IF(LEN(C47)=0,"",COUNTA($C$34:C47))</f>
         <v>14</v>
       </c>
-      <c r="B47" s="144"/>
+      <c r="B47" s="140"/>
       <c r="C47" s="35" t="s">
         <v>196</v>
       </c>
@@ -3513,15 +3513,15 @@
       <c r="E47" s="72">
         <v>165000</v>
       </c>
-      <c r="F47" s="129"/>
+      <c r="F47" s="158"/>
       <c r="G47" s="12"/>
     </row>
-    <row r="48" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A48" s="37">
         <f>IF(LEN(C48)=0,"",COUNTA($C$34:C48))</f>
         <v>15</v>
       </c>
-      <c r="B48" s="145"/>
+      <c r="B48" s="141"/>
       <c r="C48" s="35" t="s">
         <v>201</v>
       </c>
@@ -3531,15 +3531,15 @@
       <c r="E48" s="72">
         <v>116000</v>
       </c>
-      <c r="F48" s="130"/>
+      <c r="F48" s="159"/>
       <c r="G48" s="12"/>
     </row>
-    <row r="49" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A49" s="37">
         <f>IF(LEN(C49)=0,"",COUNTA($C$34:C49))</f>
         <v>16</v>
       </c>
-      <c r="B49" s="143" t="s">
+      <c r="B49" s="139" t="s">
         <v>272</v>
       </c>
       <c r="C49" s="35" t="s">
@@ -3554,12 +3554,12 @@
       <c r="F49" s="40"/>
       <c r="G49" s="12"/>
     </row>
-    <row r="50" spans="1:7" ht="33" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:7" ht="33" x14ac:dyDescent="0.25">
       <c r="A50" s="37">
         <f>IF(LEN(C50)=0,"",COUNTA($C$34:C50))</f>
         <v>17</v>
       </c>
-      <c r="B50" s="144"/>
+      <c r="B50" s="140"/>
       <c r="C50" s="35" t="s">
         <v>269</v>
       </c>
@@ -3569,17 +3569,17 @@
       <c r="E50" s="72">
         <v>130000</v>
       </c>
-      <c r="F50" s="128" t="s">
+      <c r="F50" s="157" t="s">
         <v>378</v>
       </c>
       <c r="G50" s="12"/>
     </row>
-    <row r="51" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A51" s="37">
         <f>IF(LEN(C51)=0,"",COUNTA($C$34:C51))</f>
         <v>18</v>
       </c>
-      <c r="B51" s="144"/>
+      <c r="B51" s="140"/>
       <c r="C51" s="35" t="s">
         <v>270</v>
       </c>
@@ -3589,15 +3589,15 @@
       <c r="E51" s="72">
         <v>120000</v>
       </c>
-      <c r="F51" s="129"/>
+      <c r="F51" s="158"/>
       <c r="G51" s="12"/>
     </row>
-    <row r="52" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A52" s="37">
         <f>IF(LEN(C52)=0,"",COUNTA($C$34:C52))</f>
         <v>19</v>
       </c>
-      <c r="B52" s="145"/>
+      <c r="B52" s="141"/>
       <c r="C52" s="35" t="s">
         <v>271</v>
       </c>
@@ -3607,10 +3607,10 @@
       <c r="E52" s="72">
         <v>282000</v>
       </c>
-      <c r="F52" s="130"/>
+      <c r="F52" s="159"/>
       <c r="G52" s="12"/>
     </row>
-    <row r="53" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A53" s="37">
         <f>IF(LEN(C53)=0,"",COUNTA($C$34:C53))</f>
         <v>20</v>
@@ -3630,12 +3630,12 @@
       <c r="F53" s="40"/>
       <c r="G53" s="12"/>
     </row>
-    <row r="54" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="37">
         <f>IF(LEN(C54)=0,"",COUNTA($C$34:C54))</f>
         <v>21</v>
       </c>
-      <c r="B54" s="137" t="s">
+      <c r="B54" s="165" t="s">
         <v>130</v>
       </c>
       <c r="C54" s="35" t="s">
@@ -3647,17 +3647,17 @@
       <c r="E54" s="72">
         <v>71000</v>
       </c>
-      <c r="F54" s="156" t="s">
+      <c r="F54" s="154" t="s">
         <v>380</v>
       </c>
       <c r="G54" s="12"/>
     </row>
-    <row r="55" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A55" s="37">
         <f>IF(LEN(C55)=0,"",COUNTA($C$34:C55))</f>
         <v>22</v>
       </c>
-      <c r="B55" s="138"/>
+      <c r="B55" s="166"/>
       <c r="C55" s="35" t="s">
         <v>133</v>
       </c>
@@ -3667,10 +3667,10 @@
       <c r="E55" s="68">
         <v>138000</v>
       </c>
-      <c r="F55" s="157"/>
+      <c r="F55" s="155"/>
       <c r="G55" s="12"/>
     </row>
-    <row r="56" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A56" s="37">
         <f>IF(LEN(C56)=0,"",COUNTA($C$34:C56))</f>
         <v>23</v>
@@ -3690,12 +3690,12 @@
       <c r="F56" s="110"/>
       <c r="G56" s="12"/>
     </row>
-    <row r="57" spans="1:7" s="14" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:7" s="14" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="37">
         <f>IF(LEN(C57)=0,"",COUNTA($C$34:C57))</f>
         <v>24</v>
       </c>
-      <c r="B57" s="158" t="s">
+      <c r="B57" s="167" t="s">
         <v>205</v>
       </c>
       <c r="C57" s="35" t="s">
@@ -3707,17 +3707,17 @@
       <c r="E57" s="72">
         <v>30000</v>
       </c>
-      <c r="F57" s="159" t="s">
+      <c r="F57" s="168" t="s">
         <v>382</v>
       </c>
       <c r="G57" s="13"/>
     </row>
-    <row r="58" spans="1:7" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:7" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A58" s="37">
         <f>IF(LEN(C58)=0,"",COUNTA($C$34:C58))</f>
         <v>25</v>
       </c>
-      <c r="B58" s="158"/>
+      <c r="B58" s="167"/>
       <c r="C58" s="35" t="s">
         <v>278</v>
       </c>
@@ -3727,26 +3727,26 @@
       <c r="E58" s="72">
         <v>20000</v>
       </c>
-      <c r="F58" s="160"/>
+      <c r="F58" s="169"/>
       <c r="G58" s="13"/>
     </row>
-    <row r="59" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A59" s="131" t="s">
+    <row r="59" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A59" s="170" t="s">
         <v>208</v>
       </c>
-      <c r="B59" s="132"/>
-      <c r="C59" s="132"/>
-      <c r="D59" s="133"/>
+      <c r="B59" s="171"/>
+      <c r="C59" s="171"/>
+      <c r="D59" s="172"/>
       <c r="E59" s="66"/>
       <c r="F59" s="67"/>
       <c r="G59" s="12"/>
     </row>
-    <row r="60" spans="1:7" s="14" customFormat="1" ht="33" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:7" s="14" customFormat="1" ht="33" x14ac:dyDescent="0.25">
       <c r="A60" s="37">
         <f>IF(LEN(C60)=0,"",COUNTA($C$34:C60))</f>
         <v>26</v>
       </c>
-      <c r="B60" s="147" t="s">
+      <c r="B60" s="160" t="s">
         <v>260</v>
       </c>
       <c r="C60" s="73" t="s">
@@ -3761,12 +3761,12 @@
       <c r="F60" s="40"/>
       <c r="G60" s="13"/>
     </row>
-    <row r="61" spans="1:7" s="14" customFormat="1" ht="33" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:7" s="14" customFormat="1" ht="33" x14ac:dyDescent="0.25">
       <c r="A61" s="37">
         <f>IF(LEN(C61)=0,"",COUNTA($C$34:C61))</f>
         <v>27</v>
       </c>
-      <c r="B61" s="148"/>
+      <c r="B61" s="161"/>
       <c r="C61" s="73" t="s">
         <v>83</v>
       </c>
@@ -3779,12 +3779,12 @@
       <c r="F61" s="40"/>
       <c r="G61" s="13"/>
     </row>
-    <row r="62" spans="1:7" s="14" customFormat="1" ht="33" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:7" s="14" customFormat="1" ht="33" x14ac:dyDescent="0.25">
       <c r="A62" s="37">
         <f>IF(LEN(C62)=0,"",COUNTA($C$34:C62))</f>
         <v>28</v>
       </c>
-      <c r="B62" s="148"/>
+      <c r="B62" s="161"/>
       <c r="C62" s="73" t="s">
         <v>85</v>
       </c>
@@ -3797,12 +3797,12 @@
       <c r="F62" s="40"/>
       <c r="G62" s="13"/>
     </row>
-    <row r="63" spans="1:7" s="14" customFormat="1" ht="33" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:7" s="14" customFormat="1" ht="33" x14ac:dyDescent="0.25">
       <c r="A63" s="37">
         <f>IF(LEN(C63)=0,"",COUNTA($C$34:C63))</f>
         <v>29</v>
       </c>
-      <c r="B63" s="148"/>
+      <c r="B63" s="161"/>
       <c r="C63" s="73" t="s">
         <v>79</v>
       </c>
@@ -3815,12 +3815,12 @@
       <c r="F63" s="40"/>
       <c r="G63" s="13"/>
     </row>
-    <row r="64" spans="1:7" s="14" customFormat="1" ht="33" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:7" s="14" customFormat="1" ht="33" x14ac:dyDescent="0.25">
       <c r="A64" s="37">
         <f>IF(LEN(C64)=0,"",COUNTA($C$34:C64))</f>
         <v>30</v>
       </c>
-      <c r="B64" s="148"/>
+      <c r="B64" s="161"/>
       <c r="C64" s="73" t="s">
         <v>93</v>
       </c>
@@ -3833,12 +3833,12 @@
       <c r="F64" s="40"/>
       <c r="G64" s="13"/>
     </row>
-    <row r="65" spans="1:7" s="14" customFormat="1" ht="33" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:7" s="14" customFormat="1" ht="33" x14ac:dyDescent="0.25">
       <c r="A65" s="37">
         <f>IF(LEN(C65)=0,"",COUNTA($C$34:C65))</f>
         <v>31</v>
       </c>
-      <c r="B65" s="148"/>
+      <c r="B65" s="161"/>
       <c r="C65" s="73" t="s">
         <v>80</v>
       </c>
@@ -3851,12 +3851,12 @@
       <c r="F65" s="40"/>
       <c r="G65" s="13"/>
     </row>
-    <row r="66" spans="1:7" s="14" customFormat="1" ht="33" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:7" s="14" customFormat="1" ht="33" x14ac:dyDescent="0.25">
       <c r="A66" s="37">
         <f>IF(LEN(C66)=0,"",COUNTA($C$34:C66))</f>
         <v>32</v>
       </c>
-      <c r="B66" s="148"/>
+      <c r="B66" s="161"/>
       <c r="C66" s="73" t="s">
         <v>82</v>
       </c>
@@ -3871,12 +3871,12 @@
       </c>
       <c r="G66" s="13"/>
     </row>
-    <row r="67" spans="1:7" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:7" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A67" s="37">
         <f>IF(LEN(C67)=0,"",COUNTA($C$34:C67))</f>
         <v>33</v>
       </c>
-      <c r="B67" s="148"/>
+      <c r="B67" s="161"/>
       <c r="C67" s="75" t="s">
         <v>234</v>
       </c>
@@ -3889,12 +3889,12 @@
       <c r="F67" s="40"/>
       <c r="G67" s="13"/>
     </row>
-    <row r="68" spans="1:7" s="14" customFormat="1" ht="33" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:7" s="14" customFormat="1" ht="33" x14ac:dyDescent="0.25">
       <c r="A68" s="37">
         <f>IF(LEN(C68)=0,"",COUNTA($C$34:C68))</f>
         <v>34</v>
       </c>
-      <c r="B68" s="148"/>
+      <c r="B68" s="161"/>
       <c r="C68" s="73" t="s">
         <v>73</v>
       </c>
@@ -3909,12 +3909,12 @@
       </c>
       <c r="G68" s="12"/>
     </row>
-    <row r="69" spans="1:7" s="14" customFormat="1" ht="33" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:7" s="14" customFormat="1" ht="33" x14ac:dyDescent="0.25">
       <c r="A69" s="37">
         <f>IF(LEN(C69)=0,"",COUNTA($C$34:C69))</f>
         <v>35</v>
       </c>
-      <c r="B69" s="148"/>
+      <c r="B69" s="161"/>
       <c r="C69" s="73" t="s">
         <v>75</v>
       </c>
@@ -3927,12 +3927,12 @@
       <c r="F69" s="40"/>
       <c r="G69" s="13"/>
     </row>
-    <row r="70" spans="1:7" s="14" customFormat="1" ht="33" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:7" s="14" customFormat="1" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A70" s="37">
         <f>IF(LEN(C70)=0,"",COUNTA($C$34:C70))</f>
         <v>36</v>
       </c>
-      <c r="B70" s="148"/>
+      <c r="B70" s="161"/>
       <c r="C70" s="73" t="s">
         <v>77</v>
       </c>
@@ -3945,12 +3945,12 @@
       <c r="F70" s="40"/>
       <c r="G70" s="13"/>
     </row>
-    <row r="71" spans="1:7" s="14" customFormat="1" ht="33" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:7" s="14" customFormat="1" ht="33" x14ac:dyDescent="0.25">
       <c r="A71" s="37">
         <f>IF(LEN(C71)=0,"",COUNTA($C$34:C71))</f>
         <v>37</v>
       </c>
-      <c r="B71" s="148"/>
+      <c r="B71" s="161"/>
       <c r="C71" s="73" t="s">
         <v>87</v>
       </c>
@@ -3963,12 +3963,12 @@
       <c r="F71" s="40"/>
       <c r="G71" s="13"/>
     </row>
-    <row r="72" spans="1:7" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:7" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A72" s="37">
         <f>IF(LEN(C72)=0,"",COUNTA($C$34:C72))</f>
         <v>38</v>
       </c>
-      <c r="B72" s="149"/>
+      <c r="B72" s="162"/>
       <c r="C72" s="73" t="s">
         <v>95</v>
       </c>
@@ -3981,72 +3981,72 @@
       <c r="F72" s="40"/>
       <c r="G72" s="13"/>
     </row>
-    <row r="73" spans="1:7" s="14" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:7" s="14" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="37">
         <f>IF(LEN(C73)=0,"",COUNTA($C$34:C73))</f>
         <v>39</v>
       </c>
-      <c r="B73" s="147" t="s">
+      <c r="B73" s="160" t="s">
         <v>90</v>
       </c>
       <c r="C73" s="73" t="s">
         <v>89</v>
       </c>
-      <c r="D73" s="150" t="s">
+      <c r="D73" s="173" t="s">
         <v>396</v>
       </c>
       <c r="E73" s="39">
         <v>137000</v>
       </c>
-      <c r="F73" s="128" t="s">
+      <c r="F73" s="157" t="s">
         <v>379</v>
       </c>
       <c r="G73" s="13"/>
     </row>
-    <row r="74" spans="1:7" s="14" customFormat="1" ht="33" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:7" s="14" customFormat="1" ht="33" x14ac:dyDescent="0.25">
       <c r="A74" s="37">
         <f>IF(LEN(C74)=0,"",COUNTA($C$34:C74))</f>
         <v>40</v>
       </c>
-      <c r="B74" s="148"/>
+      <c r="B74" s="161"/>
       <c r="C74" s="73" t="s">
         <v>91</v>
       </c>
-      <c r="D74" s="151"/>
+      <c r="D74" s="174"/>
       <c r="E74" s="39">
         <v>137000</v>
       </c>
-      <c r="F74" s="129"/>
+      <c r="F74" s="158"/>
       <c r="G74" s="13"/>
     </row>
-    <row r="75" spans="1:7" s="14" customFormat="1" ht="33" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:7" s="14" customFormat="1" ht="33" x14ac:dyDescent="0.25">
       <c r="A75" s="37">
         <f>IF(LEN(C75)=0,"",COUNTA($C$34:C75))</f>
         <v>41</v>
       </c>
-      <c r="B75" s="149"/>
+      <c r="B75" s="162"/>
       <c r="C75" s="73" t="s">
         <v>92</v>
       </c>
-      <c r="D75" s="152"/>
+      <c r="D75" s="175"/>
       <c r="E75" s="39">
         <v>208000</v>
       </c>
-      <c r="F75" s="130"/>
+      <c r="F75" s="159"/>
       <c r="G75" s="13"/>
     </row>
-    <row r="76" spans="1:7" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:7" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A76" s="37">
         <f>IF(LEN(C76)=0,"",COUNTA($C$34:C76))</f>
         <v>42</v>
       </c>
-      <c r="B76" s="147" t="s">
+      <c r="B76" s="160" t="s">
         <v>397</v>
       </c>
       <c r="C76" s="73" t="s">
         <v>398</v>
       </c>
-      <c r="D76" s="154" t="s">
+      <c r="D76" s="163" t="s">
         <v>400</v>
       </c>
       <c r="E76" s="39">
@@ -4055,28 +4055,28 @@
       <c r="F76" s="104"/>
       <c r="G76" s="13"/>
     </row>
-    <row r="77" spans="1:7" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:7" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A77" s="37">
         <f>IF(LEN(C77)=0,"",COUNTA($C$34:C77))</f>
         <v>43</v>
       </c>
-      <c r="B77" s="148"/>
+      <c r="B77" s="161"/>
       <c r="C77" s="73" t="s">
         <v>399</v>
       </c>
-      <c r="D77" s="155"/>
+      <c r="D77" s="164"/>
       <c r="E77" s="39">
         <v>323000</v>
       </c>
       <c r="F77" s="104"/>
       <c r="G77" s="13"/>
     </row>
-    <row r="78" spans="1:7" s="14" customFormat="1" ht="130.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:7" s="14" customFormat="1" ht="130.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="37">
         <f>IF(LEN(C78)=0,"",COUNTA($C$34:C78))</f>
         <v>44</v>
       </c>
-      <c r="B78" s="148"/>
+      <c r="B78" s="161"/>
       <c r="C78" s="73" t="s">
         <v>402</v>
       </c>
@@ -4089,12 +4089,12 @@
       <c r="F78" s="104"/>
       <c r="G78" s="13"/>
     </row>
-    <row r="79" spans="1:7" s="14" customFormat="1" ht="66" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:7" s="14" customFormat="1" ht="82.5" x14ac:dyDescent="0.25">
       <c r="A79" s="37">
         <f>IF(LEN(C79)=0,"",COUNTA($C$34:C79))</f>
         <v>45</v>
       </c>
-      <c r="B79" s="149"/>
+      <c r="B79" s="162"/>
       <c r="C79" s="73" t="s">
         <v>403</v>
       </c>
@@ -4107,23 +4107,23 @@
       <c r="F79" s="104"/>
       <c r="G79" s="13"/>
     </row>
-    <row r="80" spans="1:7" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A80" s="131" t="s">
+    <row r="80" spans="1:7" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A80" s="170" t="s">
         <v>207</v>
       </c>
-      <c r="B80" s="132"/>
-      <c r="C80" s="132"/>
-      <c r="D80" s="133"/>
+      <c r="B80" s="171"/>
+      <c r="C80" s="171"/>
+      <c r="D80" s="172"/>
       <c r="E80" s="66"/>
       <c r="F80" s="67"/>
       <c r="G80" s="13"/>
     </row>
-    <row r="81" spans="1:7" ht="33" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:7" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A81" s="37">
         <f>IF(LEN(C81)=0,"",COUNTA($C$34:C81))</f>
         <v>46</v>
       </c>
-      <c r="B81" s="153" t="s">
+      <c r="B81" s="156" t="s">
         <v>97</v>
       </c>
       <c r="C81" s="35" t="s">
@@ -4138,12 +4138,12 @@
       <c r="F81" s="40"/>
       <c r="G81" s="12"/>
     </row>
-    <row r="82" spans="1:7" ht="33" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:7" ht="33" x14ac:dyDescent="0.25">
       <c r="A82" s="37">
         <f>IF(LEN(C82)=0,"",COUNTA($C$34:C82))</f>
         <v>47</v>
       </c>
-      <c r="B82" s="153"/>
+      <c r="B82" s="156"/>
       <c r="C82" s="35" t="s">
         <v>100</v>
       </c>
@@ -4156,12 +4156,12 @@
       <c r="F82" s="40"/>
       <c r="G82" s="12"/>
     </row>
-    <row r="83" spans="1:7" ht="115.5" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:7" ht="115.5" x14ac:dyDescent="0.25">
       <c r="A83" s="37">
         <f>IF(LEN(C83)=0,"",COUNTA($C$34:C83))</f>
         <v>48</v>
       </c>
-      <c r="B83" s="153"/>
+      <c r="B83" s="156"/>
       <c r="C83" s="35" t="s">
         <v>102</v>
       </c>
@@ -4176,12 +4176,12 @@
       </c>
       <c r="G83" s="12"/>
     </row>
-    <row r="84" spans="1:7" ht="115.5" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:7" ht="115.5" x14ac:dyDescent="0.25">
       <c r="A84" s="37">
         <f>IF(LEN(C84)=0,"",COUNTA($C$34:C84))</f>
         <v>49</v>
       </c>
-      <c r="B84" s="153"/>
+      <c r="B84" s="156"/>
       <c r="C84" s="35" t="s">
         <v>105</v>
       </c>
@@ -4196,12 +4196,12 @@
       </c>
       <c r="G84" s="12"/>
     </row>
-    <row r="85" spans="1:7" ht="132" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:7" ht="148.5" x14ac:dyDescent="0.25">
       <c r="A85" s="37">
         <f>IF(LEN(C85)=0,"",COUNTA($C$34:C85))</f>
         <v>50</v>
       </c>
-      <c r="B85" s="153"/>
+      <c r="B85" s="156"/>
       <c r="C85" s="35" t="s">
         <v>405</v>
       </c>
@@ -4214,12 +4214,12 @@
       <c r="F85" s="40"/>
       <c r="G85" s="12"/>
     </row>
-    <row r="86" spans="1:7" ht="33" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:7" ht="33" x14ac:dyDescent="0.25">
       <c r="A86" s="37">
         <f>IF(LEN(C86)=0,"",COUNTA($C$34:C86))</f>
         <v>51</v>
       </c>
-      <c r="B86" s="153"/>
+      <c r="B86" s="156"/>
       <c r="C86" s="35" t="s">
         <v>107</v>
       </c>
@@ -4234,12 +4234,12 @@
       </c>
       <c r="G86" s="12"/>
     </row>
-    <row r="87" spans="1:7" ht="33" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:7" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A87" s="37">
         <f>IF(LEN(C87)=0,"",COUNTA($C$34:C87))</f>
         <v>52</v>
       </c>
-      <c r="B87" s="153"/>
+      <c r="B87" s="156"/>
       <c r="C87" s="35" t="s">
         <v>110</v>
       </c>
@@ -4254,12 +4254,12 @@
       </c>
       <c r="G87" s="12"/>
     </row>
-    <row r="88" spans="1:7" ht="33" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:7" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A88" s="37">
         <f>IF(LEN(C88)=0,"",COUNTA($C$34:C88))</f>
         <v>53</v>
       </c>
-      <c r="B88" s="153"/>
+      <c r="B88" s="156"/>
       <c r="C88" s="35" t="s">
         <v>113</v>
       </c>
@@ -4274,12 +4274,12 @@
       </c>
       <c r="G88" s="12"/>
     </row>
-    <row r="89" spans="1:7" ht="33" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:7" ht="33" x14ac:dyDescent="0.25">
       <c r="A89" s="37">
         <f>IF(LEN(C89)=0,"",COUNTA($C$34:C89))</f>
         <v>54</v>
       </c>
-      <c r="B89" s="153" t="s">
+      <c r="B89" s="156" t="s">
         <v>116</v>
       </c>
       <c r="C89" s="35" t="s">
@@ -4294,12 +4294,12 @@
       <c r="F89" s="40"/>
       <c r="G89" s="12"/>
     </row>
-    <row r="90" spans="1:7" ht="33" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:7" ht="33" x14ac:dyDescent="0.25">
       <c r="A90" s="37">
         <f>IF(LEN(C90)=0,"",COUNTA($C$34:C90))</f>
         <v>55</v>
       </c>
-      <c r="B90" s="153"/>
+      <c r="B90" s="156"/>
       <c r="C90" s="35" t="s">
         <v>119</v>
       </c>
@@ -4312,12 +4312,12 @@
       <c r="F90" s="40"/>
       <c r="G90" s="12"/>
     </row>
-    <row r="91" spans="1:7" ht="33" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:7" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A91" s="37">
         <f>IF(LEN(C91)=0,"",COUNTA($C$34:C91))</f>
         <v>56</v>
       </c>
-      <c r="B91" s="137" t="s">
+      <c r="B91" s="165" t="s">
         <v>121</v>
       </c>
       <c r="C91" s="35" t="s">
@@ -4332,12 +4332,12 @@
       <c r="F91" s="40"/>
       <c r="G91" s="12"/>
     </row>
-    <row r="92" spans="1:7" ht="33" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:7" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A92" s="37">
         <f>IF(LEN(C92)=0,"",COUNTA($C$34:C92))</f>
         <v>57</v>
       </c>
-      <c r="B92" s="139"/>
+      <c r="B92" s="176"/>
       <c r="C92" s="35" t="s">
         <v>388</v>
       </c>
@@ -4350,12 +4350,12 @@
       <c r="F92" s="40"/>
       <c r="G92" s="12"/>
     </row>
-    <row r="93" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A93" s="37">
         <f>IF(LEN(C93)=0,"",COUNTA($C$34:C93))</f>
         <v>58</v>
       </c>
-      <c r="B93" s="138"/>
+      <c r="B93" s="166"/>
       <c r="C93" s="35" t="s">
         <v>125</v>
       </c>
@@ -4368,23 +4368,23 @@
       <c r="F93" s="40"/>
       <c r="G93" s="12"/>
     </row>
-    <row r="94" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A94" s="131" t="s">
+    <row r="94" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A94" s="170" t="s">
         <v>261</v>
       </c>
-      <c r="B94" s="132"/>
-      <c r="C94" s="132"/>
-      <c r="D94" s="133"/>
+      <c r="B94" s="171"/>
+      <c r="C94" s="171"/>
+      <c r="D94" s="172"/>
       <c r="E94" s="77"/>
       <c r="F94" s="67"/>
       <c r="G94" s="12"/>
     </row>
-    <row r="95" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A95" s="37">
         <f>IF(LEN(C95)=0,"",COUNTA($C$34:C95))</f>
         <v>59</v>
       </c>
-      <c r="B95" s="143" t="s">
+      <c r="B95" s="139" t="s">
         <v>240</v>
       </c>
       <c r="C95" s="35" t="s">
@@ -4399,12 +4399,12 @@
       <c r="F95" s="40"/>
       <c r="G95" s="12"/>
     </row>
-    <row r="96" spans="1:7" ht="49.5" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:7" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A96" s="37">
         <f>IF(LEN(C96)=0,"",COUNTA($C$34:C96))</f>
         <v>60</v>
       </c>
-      <c r="B96" s="145"/>
+      <c r="B96" s="141"/>
       <c r="C96" s="35" t="s">
         <v>239</v>
       </c>
@@ -4417,12 +4417,12 @@
       <c r="F96" s="40"/>
       <c r="G96" s="12"/>
     </row>
-    <row r="97" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A97" s="37">
         <f>IF(LEN(C97)=0,"",COUNTA($C$34:C97))</f>
         <v>61</v>
       </c>
-      <c r="B97" s="137" t="s">
+      <c r="B97" s="165" t="s">
         <v>243</v>
       </c>
       <c r="C97" s="35" t="s">
@@ -4435,12 +4435,12 @@
       <c r="F97" s="40"/>
       <c r="G97" s="12"/>
     </row>
-    <row r="98" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A98" s="37">
         <f>IF(LEN(C98)=0,"",COUNTA($C$34:C98))</f>
         <v>62</v>
       </c>
-      <c r="B98" s="138"/>
+      <c r="B98" s="166"/>
       <c r="C98" s="35" t="s">
         <v>242</v>
       </c>
@@ -4451,7 +4451,7 @@
       <c r="F98" s="40"/>
       <c r="G98" s="12"/>
     </row>
-    <row r="99" spans="1:7" ht="66" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:7" ht="82.5" x14ac:dyDescent="0.25">
       <c r="A99" s="37">
         <f>IF(LEN(C99)=0,"",COUNTA($C$34:C99))</f>
         <v>63</v>
@@ -4471,12 +4471,12 @@
       </c>
       <c r="G99" s="12"/>
     </row>
-    <row r="100" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A100" s="37">
         <f>IF(LEN(C100)=0,"",COUNTA($C$34:C100))</f>
         <v>64</v>
       </c>
-      <c r="B100" s="137" t="s">
+      <c r="B100" s="165" t="s">
         <v>258</v>
       </c>
       <c r="C100" s="35" t="s">
@@ -4489,12 +4489,12 @@
       <c r="F100" s="40"/>
       <c r="G100" s="12"/>
     </row>
-    <row r="101" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A101" s="37">
         <f>IF(LEN(C101)=0,"",COUNTA($C$34:C101))</f>
         <v>65</v>
       </c>
-      <c r="B101" s="139"/>
+      <c r="B101" s="176"/>
       <c r="C101" s="35" t="s">
         <v>245</v>
       </c>
@@ -4505,12 +4505,12 @@
       <c r="F101" s="40"/>
       <c r="G101" s="12"/>
     </row>
-    <row r="102" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A102" s="37">
         <f>IF(LEN(C102)=0,"",COUNTA($C$34:C102))</f>
         <v>66</v>
       </c>
-      <c r="B102" s="139"/>
+      <c r="B102" s="176"/>
       <c r="C102" s="35" t="s">
         <v>246</v>
       </c>
@@ -4521,12 +4521,12 @@
       <c r="F102" s="40"/>
       <c r="G102" s="12"/>
     </row>
-    <row r="103" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A103" s="37">
         <f>IF(LEN(C103)=0,"",COUNTA($C$34:C103))</f>
         <v>67</v>
       </c>
-      <c r="B103" s="139"/>
+      <c r="B103" s="176"/>
       <c r="C103" s="35" t="s">
         <v>247</v>
       </c>
@@ -4537,12 +4537,12 @@
       <c r="F103" s="40"/>
       <c r="G103" s="12"/>
     </row>
-    <row r="104" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A104" s="37">
         <f>IF(LEN(C104)=0,"",COUNTA($C$34:C104))</f>
         <v>68</v>
       </c>
-      <c r="B104" s="139"/>
+      <c r="B104" s="176"/>
       <c r="C104" s="35" t="s">
         <v>248</v>
       </c>
@@ -4553,12 +4553,12 @@
       <c r="F104" s="40"/>
       <c r="G104" s="12"/>
     </row>
-    <row r="105" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A105" s="37">
         <f>IF(LEN(C105)=0,"",COUNTA($C$34:C105))</f>
         <v>69</v>
       </c>
-      <c r="B105" s="139"/>
+      <c r="B105" s="176"/>
       <c r="C105" s="35" t="s">
         <v>249</v>
       </c>
@@ -4569,12 +4569,12 @@
       <c r="F105" s="40"/>
       <c r="G105" s="12"/>
     </row>
-    <row r="106" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A106" s="37">
         <f>IF(LEN(C106)=0,"",COUNTA($C$34:C106))</f>
         <v>70</v>
       </c>
-      <c r="B106" s="139"/>
+      <c r="B106" s="176"/>
       <c r="C106" s="35" t="s">
         <v>250</v>
       </c>
@@ -4585,12 +4585,12 @@
       <c r="F106" s="40"/>
       <c r="G106" s="12"/>
     </row>
-    <row r="107" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A107" s="37">
         <f>IF(LEN(C107)=0,"",COUNTA($C$34:C107))</f>
         <v>71</v>
       </c>
-      <c r="B107" s="139"/>
+      <c r="B107" s="176"/>
       <c r="C107" s="35" t="s">
         <v>251</v>
       </c>
@@ -4601,12 +4601,12 @@
       <c r="F107" s="40"/>
       <c r="G107" s="12"/>
     </row>
-    <row r="108" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A108" s="37">
         <f>IF(LEN(C108)=0,"",COUNTA($C$34:C108))</f>
         <v>72</v>
       </c>
-      <c r="B108" s="139"/>
+      <c r="B108" s="176"/>
       <c r="C108" s="35" t="s">
         <v>252</v>
       </c>
@@ -4617,12 +4617,12 @@
       <c r="F108" s="40"/>
       <c r="G108" s="12"/>
     </row>
-    <row r="109" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A109" s="37">
         <f>IF(LEN(C109)=0,"",COUNTA($C$34:C109))</f>
         <v>73</v>
       </c>
-      <c r="B109" s="139"/>
+      <c r="B109" s="176"/>
       <c r="C109" s="35" t="s">
         <v>253</v>
       </c>
@@ -4633,12 +4633,12 @@
       <c r="F109" s="40"/>
       <c r="G109" s="12"/>
     </row>
-    <row r="110" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A110" s="37">
         <f>IF(LEN(C110)=0,"",COUNTA($C$34:C110))</f>
         <v>74</v>
       </c>
-      <c r="B110" s="139"/>
+      <c r="B110" s="176"/>
       <c r="C110" s="35" t="s">
         <v>254</v>
       </c>
@@ -4649,12 +4649,12 @@
       <c r="F110" s="40"/>
       <c r="G110" s="12"/>
     </row>
-    <row r="111" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A111" s="37">
         <f>IF(LEN(C111)=0,"",COUNTA($C$34:C111))</f>
         <v>75</v>
       </c>
-      <c r="B111" s="139"/>
+      <c r="B111" s="176"/>
       <c r="C111" s="35" t="s">
         <v>255</v>
       </c>
@@ -4665,12 +4665,12 @@
       <c r="F111" s="40"/>
       <c r="G111" s="12"/>
     </row>
-    <row r="112" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A112" s="37">
         <f>IF(LEN(C112)=0,"",COUNTA($C$34:C112))</f>
         <v>76</v>
       </c>
-      <c r="B112" s="139"/>
+      <c r="B112" s="176"/>
       <c r="C112" s="35" t="s">
         <v>256</v>
       </c>
@@ -4681,12 +4681,12 @@
       <c r="F112" s="40"/>
       <c r="G112" s="12"/>
     </row>
-    <row r="113" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A113" s="37">
         <f>IF(LEN(C113)=0,"",COUNTA($C$34:C113))</f>
         <v>77</v>
       </c>
-      <c r="B113" s="138"/>
+      <c r="B113" s="166"/>
       <c r="C113" s="35" t="s">
         <v>257</v>
       </c>
@@ -4697,18 +4697,18 @@
       <c r="F113" s="40"/>
       <c r="G113" s="12"/>
     </row>
-    <row r="114" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A114" s="131" t="s">
+    <row r="114" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A114" s="170" t="s">
         <v>226</v>
       </c>
-      <c r="B114" s="132"/>
-      <c r="C114" s="132"/>
-      <c r="D114" s="133"/>
+      <c r="B114" s="171"/>
+      <c r="C114" s="171"/>
+      <c r="D114" s="172"/>
       <c r="E114" s="66"/>
       <c r="F114" s="67"/>
       <c r="G114" s="12"/>
     </row>
-    <row r="115" spans="1:7" ht="49.5" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:7" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A115" s="37">
         <f>IF(LEN(C115)=0,"",COUNTA($C$34:C115))</f>
         <v>78</v>
@@ -4728,7 +4728,7 @@
       <c r="F115" s="40"/>
       <c r="G115" s="12"/>
     </row>
-    <row r="116" spans="1:7" ht="49.5" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:7" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A116" s="37">
         <f>IF(LEN(C116)=0,"",COUNTA($C$34:C116))</f>
         <v>79</v>
@@ -4748,23 +4748,23 @@
       <c r="F116" s="40"/>
       <c r="G116" s="12"/>
     </row>
-    <row r="117" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A117" s="127" t="s">
+    <row r="117" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A117" s="177" t="s">
         <v>262</v>
       </c>
-      <c r="B117" s="127"/>
-      <c r="C117" s="127"/>
-      <c r="D117" s="127"/>
+      <c r="B117" s="177"/>
+      <c r="C117" s="177"/>
+      <c r="D117" s="177"/>
       <c r="E117" s="77"/>
       <c r="F117" s="67"/>
       <c r="G117" s="12"/>
     </row>
-    <row r="118" spans="1:7" ht="49.5" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:7" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A118" s="37">
         <f>IF(LEN(C118)=0,"",COUNTA($C$34:C118))</f>
         <v>80</v>
       </c>
-      <c r="B118" s="140" t="s">
+      <c r="B118" s="178" t="s">
         <v>204</v>
       </c>
       <c r="C118" s="36" t="s">
@@ -4779,12 +4779,12 @@
       <c r="F118" s="40"/>
       <c r="G118" s="12"/>
     </row>
-    <row r="119" spans="1:7" ht="33" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:7" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A119" s="37">
         <f>IF(LEN(C119)=0,"",COUNTA($C$34:C119))</f>
         <v>81</v>
       </c>
-      <c r="B119" s="141"/>
+      <c r="B119" s="179"/>
       <c r="C119" s="36" t="s">
         <v>34</v>
       </c>
@@ -4797,12 +4797,12 @@
       <c r="F119" s="40"/>
       <c r="G119" s="12"/>
     </row>
-    <row r="120" spans="1:7" ht="33" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:7" ht="33" x14ac:dyDescent="0.25">
       <c r="A120" s="37">
         <f>IF(LEN(C120)=0,"",COUNTA($C$34:C120))</f>
         <v>82</v>
       </c>
-      <c r="B120" s="141"/>
+      <c r="B120" s="179"/>
       <c r="C120" s="36" t="s">
         <v>324</v>
       </c>
@@ -4815,12 +4815,12 @@
       <c r="F120" s="40"/>
       <c r="G120" s="12"/>
     </row>
-    <row r="121" spans="1:7" ht="33" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:7" ht="33" x14ac:dyDescent="0.25">
       <c r="A121" s="37">
         <f>IF(LEN(C121)=0,"",COUNTA($C$34:C121))</f>
         <v>83</v>
       </c>
-      <c r="B121" s="141"/>
+      <c r="B121" s="179"/>
       <c r="C121" s="35" t="s">
         <v>407</v>
       </c>
@@ -4831,12 +4831,12 @@
       <c r="F121" s="40"/>
       <c r="G121" s="12"/>
     </row>
-    <row r="122" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A122" s="37">
         <f>IF(LEN(C122)=0,"",COUNTA($C$34:C122))</f>
         <v>84</v>
       </c>
-      <c r="B122" s="141"/>
+      <c r="B122" s="179"/>
       <c r="C122" s="35" t="s">
         <v>408</v>
       </c>
@@ -4847,12 +4847,12 @@
       <c r="F122" s="40"/>
       <c r="G122" s="12"/>
     </row>
-    <row r="123" spans="1:7" ht="33" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:7" ht="33" x14ac:dyDescent="0.25">
       <c r="A123" s="37">
         <f>IF(LEN(C123)=0,"",COUNTA($C$34:C123))</f>
         <v>85</v>
       </c>
-      <c r="B123" s="141"/>
+      <c r="B123" s="179"/>
       <c r="C123" s="35" t="s">
         <v>409</v>
       </c>
@@ -4863,12 +4863,12 @@
       <c r="F123" s="40"/>
       <c r="G123" s="12"/>
     </row>
-    <row r="124" spans="1:7" ht="33" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:7" ht="33" x14ac:dyDescent="0.25">
       <c r="A124" s="37">
         <f>IF(LEN(C124)=0,"",COUNTA($C$34:C124))</f>
         <v>86</v>
       </c>
-      <c r="B124" s="141"/>
+      <c r="B124" s="179"/>
       <c r="C124" s="36" t="s">
         <v>410</v>
       </c>
@@ -4881,12 +4881,12 @@
       <c r="F124" s="40"/>
       <c r="G124" s="12"/>
     </row>
-    <row r="125" spans="1:7" ht="49.5" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:7" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A125" s="37">
         <f>IF(LEN(C125)=0,"",COUNTA($C$34:C125))</f>
         <v>87</v>
       </c>
-      <c r="B125" s="141"/>
+      <c r="B125" s="179"/>
       <c r="C125" s="36" t="s">
         <v>138</v>
       </c>
@@ -4899,12 +4899,12 @@
       <c r="F125" s="40"/>
       <c r="G125" s="12"/>
     </row>
-    <row r="126" spans="1:7" ht="49.5" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:7" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A126" s="37">
         <f>IF(LEN(C126)=0,"",COUNTA($C$34:C126))</f>
         <v>88</v>
       </c>
-      <c r="B126" s="142"/>
+      <c r="B126" s="180"/>
       <c r="C126" s="36" t="s">
         <v>139</v>
       </c>
@@ -4917,12 +4917,12 @@
       <c r="F126" s="40"/>
       <c r="G126" s="12"/>
     </row>
-    <row r="127" spans="1:7" ht="33" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:7" ht="33" x14ac:dyDescent="0.25">
       <c r="A127" s="37">
         <f>IF(LEN(C127)=0,"",COUNTA($C$34:C127))</f>
         <v>89</v>
       </c>
-      <c r="B127" s="143" t="s">
+      <c r="B127" s="139" t="s">
         <v>282</v>
       </c>
       <c r="C127" s="35" t="s">
@@ -4937,12 +4937,12 @@
       <c r="F127" s="40"/>
       <c r="G127" s="12"/>
     </row>
-    <row r="128" spans="1:7" ht="33" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:7" ht="33" x14ac:dyDescent="0.25">
       <c r="A128" s="37">
         <f>IF(LEN(C128)=0,"",COUNTA($C$34:C128))</f>
         <v>90</v>
       </c>
-      <c r="B128" s="144"/>
+      <c r="B128" s="140"/>
       <c r="C128" s="35" t="s">
         <v>143</v>
       </c>
@@ -4955,12 +4955,12 @@
       <c r="F128" s="40"/>
       <c r="G128" s="12"/>
     </row>
-    <row r="129" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A129" s="37">
         <f>IF(LEN(C129)=0,"",COUNTA($C$34:C129))</f>
         <v>91</v>
       </c>
-      <c r="B129" s="144"/>
+      <c r="B129" s="140"/>
       <c r="C129" s="35" t="s">
         <v>392</v>
       </c>
@@ -4973,12 +4973,12 @@
       <c r="F129" s="40"/>
       <c r="G129" s="12"/>
     </row>
-    <row r="130" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A130" s="37">
         <f>IF(LEN(C130)=0,"",COUNTA($C$34:C130))</f>
         <v>92</v>
       </c>
-      <c r="B130" s="144"/>
+      <c r="B130" s="140"/>
       <c r="C130" s="35" t="s">
         <v>394</v>
       </c>
@@ -4991,12 +4991,12 @@
       <c r="F130" s="40"/>
       <c r="G130" s="12"/>
     </row>
-    <row r="131" spans="1:7" ht="33" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:7" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A131" s="37">
         <f>IF(LEN(C131)=0,"",COUNTA($C$34:C131))</f>
         <v>93</v>
       </c>
-      <c r="B131" s="144"/>
+      <c r="B131" s="140"/>
       <c r="C131" s="35" t="s">
         <v>369</v>
       </c>
@@ -5009,12 +5009,12 @@
       <c r="F131" s="108"/>
       <c r="G131" s="12"/>
     </row>
-    <row r="132" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:7" ht="33" x14ac:dyDescent="0.25">
       <c r="A132" s="37">
         <f>IF(LEN(C132)=0,"",COUNTA($C$34:C132))</f>
         <v>94</v>
       </c>
-      <c r="B132" s="145"/>
+      <c r="B132" s="141"/>
       <c r="C132" s="35" t="s">
         <v>145</v>
       </c>
@@ -5025,12 +5025,12 @@
       <c r="F132" s="40"/>
       <c r="G132" s="12"/>
     </row>
-    <row r="133" spans="1:7" ht="33" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:7" ht="33" x14ac:dyDescent="0.25">
       <c r="A133" s="37">
         <f>IF(LEN(C133)=0,"",COUNTA($C$34:C133))</f>
         <v>95</v>
       </c>
-      <c r="B133" s="144" t="s">
+      <c r="B133" s="140" t="s">
         <v>283</v>
       </c>
       <c r="C133" s="35" t="s">
@@ -5043,12 +5043,12 @@
       <c r="F133" s="40"/>
       <c r="G133" s="12"/>
     </row>
-    <row r="134" spans="1:7" ht="33" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:7" ht="33" x14ac:dyDescent="0.25">
       <c r="A134" s="37">
         <f>IF(LEN(C134)=0,"",COUNTA($C$34:C134))</f>
         <v>96</v>
       </c>
-      <c r="B134" s="144"/>
+      <c r="B134" s="140"/>
       <c r="C134" s="35" t="s">
         <v>330</v>
       </c>
@@ -5061,12 +5061,12 @@
       <c r="F134" s="40"/>
       <c r="G134" s="12"/>
     </row>
-    <row r="135" spans="1:7" ht="33" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:7" ht="33" x14ac:dyDescent="0.25">
       <c r="A135" s="37">
         <f>IF(LEN(C135)=0,"",COUNTA($C$34:C135))</f>
         <v>97</v>
       </c>
-      <c r="B135" s="144"/>
+      <c r="B135" s="140"/>
       <c r="C135" s="35" t="s">
         <v>151</v>
       </c>
@@ -5079,12 +5079,12 @@
       <c r="F135" s="40"/>
       <c r="G135" s="12"/>
     </row>
-    <row r="136" spans="1:7" ht="33" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:7" ht="33" x14ac:dyDescent="0.25">
       <c r="A136" s="37">
         <f>IF(LEN(C136)=0,"",COUNTA($C$34:C136))</f>
         <v>98</v>
       </c>
-      <c r="B136" s="144"/>
+      <c r="B136" s="140"/>
       <c r="C136" s="35" t="s">
         <v>153</v>
       </c>
@@ -5097,12 +5097,12 @@
       <c r="F136" s="40"/>
       <c r="G136" s="12"/>
     </row>
-    <row r="137" spans="1:7" ht="33" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:7" ht="33" x14ac:dyDescent="0.25">
       <c r="A137" s="37">
         <f>IF(LEN(C137)=0,"",COUNTA($C$34:C137))</f>
         <v>99</v>
       </c>
-      <c r="B137" s="144"/>
+      <c r="B137" s="140"/>
       <c r="C137" s="35" t="s">
         <v>155</v>
       </c>
@@ -5115,12 +5115,12 @@
       <c r="F137" s="40"/>
       <c r="G137" s="12"/>
     </row>
-    <row r="138" spans="1:7" ht="33" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:7" ht="33" x14ac:dyDescent="0.25">
       <c r="A138" s="37">
         <f>IF(LEN(C138)=0,"",COUNTA($C$34:C138))</f>
         <v>100</v>
       </c>
-      <c r="B138" s="144"/>
+      <c r="B138" s="140"/>
       <c r="C138" s="35" t="s">
         <v>157</v>
       </c>
@@ -5133,12 +5133,12 @@
       <c r="F138" s="40"/>
       <c r="G138" s="12"/>
     </row>
-    <row r="139" spans="1:7" ht="33" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:7" ht="33" x14ac:dyDescent="0.25">
       <c r="A139" s="37">
         <f>IF(LEN(C139)=0,"",COUNTA($C$34:C139))</f>
         <v>101</v>
       </c>
-      <c r="B139" s="144"/>
+      <c r="B139" s="140"/>
       <c r="C139" s="35" t="s">
         <v>158</v>
       </c>
@@ -5149,12 +5149,12 @@
       <c r="F139" s="40"/>
       <c r="G139" s="12"/>
     </row>
-    <row r="140" spans="1:7" ht="56" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A140" s="37">
         <f>IF(LEN(C140)=0,"",COUNTA($C$34:C140))</f>
         <v>102</v>
       </c>
-      <c r="B140" s="146" t="s">
+      <c r="B140" s="151" t="s">
         <v>304</v>
       </c>
       <c r="C140" s="35" t="s">
@@ -5171,12 +5171,12 @@
       </c>
       <c r="G140" s="113"/>
     </row>
-    <row r="141" spans="1:7" ht="33" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:7" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A141" s="37">
         <f>IF(LEN(C141)=0,"",COUNTA($C$34:C141))</f>
         <v>103</v>
       </c>
-      <c r="B141" s="146"/>
+      <c r="B141" s="151"/>
       <c r="C141" s="35" t="s">
         <v>342</v>
       </c>
@@ -5189,12 +5189,12 @@
       <c r="F141" s="40"/>
       <c r="G141" s="12"/>
     </row>
-    <row r="142" spans="1:7" ht="56" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A142" s="37">
         <f>IF(LEN(C142)=0,"",COUNTA($C$34:C142))</f>
         <v>104</v>
       </c>
-      <c r="B142" s="146"/>
+      <c r="B142" s="151"/>
       <c r="C142" s="35" t="s">
         <v>343</v>
       </c>
@@ -5209,12 +5209,12 @@
       </c>
       <c r="G142" s="113"/>
     </row>
-    <row r="143" spans="1:7" ht="49.5" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:7" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A143" s="37">
         <f>IF(LEN(C143)=0,"",COUNTA($C$34:C143))</f>
         <v>105</v>
       </c>
-      <c r="B143" s="146"/>
+      <c r="B143" s="151"/>
       <c r="C143" s="35" t="s">
         <v>344</v>
       </c>
@@ -5227,12 +5227,12 @@
       <c r="F143" s="40"/>
       <c r="G143" s="12"/>
     </row>
-    <row r="144" spans="1:7" ht="33" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:7" ht="33" x14ac:dyDescent="0.25">
       <c r="A144" s="37">
         <f>IF(LEN(C144)=0,"",COUNTA($C$34:C144))</f>
         <v>106</v>
       </c>
-      <c r="B144" s="146"/>
+      <c r="B144" s="151"/>
       <c r="C144" s="35" t="s">
         <v>345</v>
       </c>
@@ -5245,12 +5245,12 @@
       <c r="F144" s="40"/>
       <c r="G144" s="12"/>
     </row>
-    <row r="145" spans="1:7" ht="33" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:7" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A145" s="37">
         <f>IF(LEN(C145)=0,"",COUNTA($C$34:C145))</f>
         <v>107</v>
       </c>
-      <c r="B145" s="146"/>
+      <c r="B145" s="151"/>
       <c r="C145" s="107" t="s">
         <v>372</v>
       </c>
@@ -5263,12 +5263,12 @@
       <c r="F145" s="40"/>
       <c r="G145" s="12"/>
     </row>
-    <row r="146" spans="1:7" ht="33" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:7" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A146" s="37">
         <f>IF(LEN(C146)=0,"",COUNTA($C$34:C146))</f>
         <v>108</v>
       </c>
-      <c r="B146" s="146"/>
+      <c r="B146" s="151"/>
       <c r="C146" s="35" t="s">
         <v>346</v>
       </c>
@@ -5281,12 +5281,12 @@
       <c r="F146" s="40"/>
       <c r="G146" s="12"/>
     </row>
-    <row r="147" spans="1:7" ht="33" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:7" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A147" s="37">
         <f>IF(LEN(C147)=0,"",COUNTA($C$34:C147))</f>
         <v>109</v>
       </c>
-      <c r="B147" s="146"/>
+      <c r="B147" s="151"/>
       <c r="C147" s="35" t="s">
         <v>347</v>
       </c>
@@ -5299,12 +5299,12 @@
       <c r="F147" s="40"/>
       <c r="G147" s="12"/>
     </row>
-    <row r="148" spans="1:7" ht="49.5" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:7" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A148" s="37">
         <f>IF(LEN(C148)=0,"",COUNTA($C$34:C148))</f>
         <v>110</v>
       </c>
-      <c r="B148" s="146"/>
+      <c r="B148" s="151"/>
       <c r="C148" s="35" t="s">
         <v>348</v>
       </c>
@@ -5317,12 +5317,12 @@
       <c r="F148" s="40"/>
       <c r="G148" s="12"/>
     </row>
-    <row r="149" spans="1:7" ht="33" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:7" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A149" s="37">
         <f>IF(LEN(C149)=0,"",COUNTA($C$34:C149))</f>
         <v>111</v>
       </c>
-      <c r="B149" s="146"/>
+      <c r="B149" s="151"/>
       <c r="C149" s="107" t="s">
         <v>371</v>
       </c>
@@ -5335,12 +5335,12 @@
       <c r="F149" s="40"/>
       <c r="G149" s="12"/>
     </row>
-    <row r="150" spans="1:7" ht="33" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:7" ht="33" x14ac:dyDescent="0.25">
       <c r="A150" s="37">
         <f>IF(LEN(C150)=0,"",COUNTA($C$34:C150))</f>
         <v>112</v>
       </c>
-      <c r="B150" s="146"/>
+      <c r="B150" s="151"/>
       <c r="C150" s="35" t="s">
         <v>349</v>
       </c>
@@ -5355,12 +5355,12 @@
       </c>
       <c r="G150" s="12"/>
     </row>
-    <row r="151" spans="1:7" ht="49.5" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:7" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A151" s="37">
         <f>IF(LEN(C151)=0,"",COUNTA($C$34:C151))</f>
         <v>113</v>
       </c>
-      <c r="B151" s="146"/>
+      <c r="B151" s="151"/>
       <c r="C151" s="35" t="s">
         <v>350</v>
       </c>
@@ -5373,12 +5373,12 @@
       <c r="F151" s="40"/>
       <c r="G151" s="12"/>
     </row>
-    <row r="152" spans="1:7" ht="49.5" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:7" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A152" s="37">
         <f>IF(LEN(C152)=0,"",COUNTA($C$34:C152))</f>
         <v>114</v>
       </c>
-      <c r="B152" s="146"/>
+      <c r="B152" s="151"/>
       <c r="C152" s="35" t="s">
         <v>351</v>
       </c>
@@ -5391,12 +5391,12 @@
       <c r="F152" s="40"/>
       <c r="G152" s="12"/>
     </row>
-    <row r="153" spans="1:7" ht="49.5" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:7" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A153" s="37">
         <f>IF(LEN(C153)=0,"",COUNTA($C$34:C153))</f>
         <v>115</v>
       </c>
-      <c r="B153" s="146"/>
+      <c r="B153" s="151"/>
       <c r="C153" s="35" t="s">
         <v>352</v>
       </c>
@@ -5409,12 +5409,12 @@
       <c r="F153" s="40"/>
       <c r="G153" s="12"/>
     </row>
-    <row r="154" spans="1:7" ht="33" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:7" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A154" s="37">
         <f>IF(LEN(C154)=0,"",COUNTA($C$34:C154))</f>
         <v>116</v>
       </c>
-      <c r="B154" s="146"/>
+      <c r="B154" s="151"/>
       <c r="C154" s="35" t="s">
         <v>353</v>
       </c>
@@ -5427,12 +5427,12 @@
       <c r="F154" s="40"/>
       <c r="G154" s="12"/>
     </row>
-    <row r="155" spans="1:7" ht="49.5" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:7" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A155" s="37">
         <f>IF(LEN(C155)=0,"",COUNTA($C$34:C155))</f>
         <v>117</v>
       </c>
-      <c r="B155" s="146"/>
+      <c r="B155" s="151"/>
       <c r="C155" s="35" t="s">
         <v>354</v>
       </c>
@@ -5445,12 +5445,12 @@
       <c r="F155" s="40"/>
       <c r="G155" s="12"/>
     </row>
-    <row r="156" spans="1:7" ht="33" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:7" ht="33" x14ac:dyDescent="0.25">
       <c r="A156" s="37">
         <f>IF(LEN(C156)=0,"",COUNTA($C$34:C156))</f>
         <v>118</v>
       </c>
-      <c r="B156" s="146"/>
+      <c r="B156" s="151"/>
       <c r="C156" s="35" t="s">
         <v>355</v>
       </c>
@@ -5463,12 +5463,12 @@
       <c r="F156" s="40"/>
       <c r="G156" s="12"/>
     </row>
-    <row r="157" spans="1:7" ht="33" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:7" ht="33" x14ac:dyDescent="0.25">
       <c r="A157" s="37">
         <f>IF(LEN(C157)=0,"",COUNTA($C$34:C157))</f>
         <v>119</v>
       </c>
-      <c r="B157" s="146"/>
+      <c r="B157" s="151"/>
       <c r="C157" s="35" t="s">
         <v>356</v>
       </c>
@@ -5481,12 +5481,12 @@
       <c r="F157" s="40"/>
       <c r="G157" s="12"/>
     </row>
-    <row r="158" spans="1:7" ht="33" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:7" ht="33" x14ac:dyDescent="0.25">
       <c r="A158" s="37">
         <f>IF(LEN(C158)=0,"",COUNTA($C$34:C158))</f>
         <v>120</v>
       </c>
-      <c r="B158" s="146"/>
+      <c r="B158" s="151"/>
       <c r="C158" s="35" t="s">
         <v>357</v>
       </c>
@@ -5499,12 +5499,12 @@
       <c r="F158" s="40"/>
       <c r="G158" s="12"/>
     </row>
-    <row r="159" spans="1:7" ht="33" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:7" ht="33" x14ac:dyDescent="0.25">
       <c r="A159" s="37">
         <f>IF(LEN(C159)=0,"",COUNTA($C$34:C159))</f>
         <v>121</v>
       </c>
-      <c r="B159" s="146"/>
+      <c r="B159" s="151"/>
       <c r="C159" s="35" t="s">
         <v>358</v>
       </c>
@@ -5517,12 +5517,12 @@
       <c r="F159" s="40"/>
       <c r="G159" s="12"/>
     </row>
-    <row r="160" spans="1:7" ht="33" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:7" ht="33" x14ac:dyDescent="0.25">
       <c r="A160" s="37">
         <f>IF(LEN(C160)=0,"",COUNTA($C$34:C160))</f>
         <v>122</v>
       </c>
-      <c r="B160" s="146"/>
+      <c r="B160" s="151"/>
       <c r="C160" s="35" t="s">
         <v>359</v>
       </c>
@@ -5535,12 +5535,12 @@
       <c r="F160" s="40"/>
       <c r="G160" s="12"/>
     </row>
-    <row r="161" spans="1:8" ht="33" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:8" ht="33" x14ac:dyDescent="0.25">
       <c r="A161" s="37">
         <f>IF(LEN(C161)=0,"",COUNTA($C$34:C161))</f>
         <v>123</v>
       </c>
-      <c r="B161" s="146"/>
+      <c r="B161" s="151"/>
       <c r="C161" s="35" t="s">
         <v>360</v>
       </c>
@@ -5553,12 +5553,12 @@
       <c r="F161" s="40"/>
       <c r="G161" s="12"/>
     </row>
-    <row r="162" spans="1:8" ht="49.5" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:8" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A162" s="37">
         <f>IF(LEN(C162)=0,"",COUNTA($C$34:C162))</f>
         <v>124</v>
       </c>
-      <c r="B162" s="146"/>
+      <c r="B162" s="151"/>
       <c r="C162" s="35" t="s">
         <v>361</v>
       </c>
@@ -5571,12 +5571,12 @@
       <c r="F162" s="40"/>
       <c r="G162" s="12"/>
     </row>
-    <row r="163" spans="1:8" ht="33" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:8" ht="33" x14ac:dyDescent="0.25">
       <c r="A163" s="37">
         <f>IF(LEN(C163)=0,"",COUNTA($C$34:C163))</f>
         <v>125</v>
       </c>
-      <c r="B163" s="146"/>
+      <c r="B163" s="151"/>
       <c r="C163" s="35" t="s">
         <v>362</v>
       </c>
@@ -5589,12 +5589,12 @@
       <c r="F163" s="40"/>
       <c r="G163" s="12"/>
     </row>
-    <row r="164" spans="1:8" ht="33" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:8" ht="33" x14ac:dyDescent="0.25">
       <c r="A164" s="37">
         <f>IF(LEN(C164)=0,"",COUNTA($C$34:C164))</f>
         <v>126</v>
       </c>
-      <c r="B164" s="146"/>
+      <c r="B164" s="151"/>
       <c r="C164" s="35" t="s">
         <v>363</v>
       </c>
@@ -5605,12 +5605,12 @@
       <c r="F164" s="40"/>
       <c r="G164" s="12"/>
     </row>
-    <row r="165" spans="1:8" ht="33" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:8" ht="33" x14ac:dyDescent="0.25">
       <c r="A165" s="37">
         <f>IF(LEN(C165)=0,"",COUNTA($C$34:C165))</f>
         <v>127</v>
       </c>
-      <c r="B165" s="146"/>
+      <c r="B165" s="151"/>
       <c r="C165" s="35" t="s">
         <v>364</v>
       </c>
@@ -5621,12 +5621,12 @@
       <c r="F165" s="40"/>
       <c r="G165" s="12"/>
     </row>
-    <row r="166" spans="1:8" ht="33" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:8" ht="33" x14ac:dyDescent="0.25">
       <c r="A166" s="37">
         <f>IF(LEN(C166)=0,"",COUNTA($C$34:C166))</f>
         <v>128</v>
       </c>
-      <c r="B166" s="146"/>
+      <c r="B166" s="151"/>
       <c r="C166" s="35" t="s">
         <v>365</v>
       </c>
@@ -5639,12 +5639,12 @@
       <c r="F166" s="40"/>
       <c r="G166" s="12"/>
     </row>
-    <row r="167" spans="1:8" ht="33" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:8" ht="33" x14ac:dyDescent="0.25">
       <c r="A167" s="37">
         <f>IF(LEN(C167)=0,"",COUNTA($C$34:C167))</f>
         <v>129</v>
       </c>
-      <c r="B167" s="146"/>
+      <c r="B167" s="151"/>
       <c r="C167" s="35" t="s">
         <v>366</v>
       </c>
@@ -5657,12 +5657,12 @@
       <c r="F167" s="40"/>
       <c r="G167" s="12"/>
     </row>
-    <row r="168" spans="1:8" ht="33" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:8" ht="33" x14ac:dyDescent="0.25">
       <c r="A168" s="37">
         <f>IF(LEN(C168)=0,"",COUNTA($C$34:C168))</f>
         <v>130</v>
       </c>
-      <c r="B168" s="146"/>
+      <c r="B168" s="151"/>
       <c r="C168" s="35" t="s">
         <v>367</v>
       </c>
@@ -5675,12 +5675,12 @@
       <c r="F168" s="40"/>
       <c r="G168" s="12"/>
     </row>
-    <row r="169" spans="1:8" ht="33" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:8" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A169" s="37">
         <f>IF(LEN(C169)=0,"",COUNTA($C$34:C169))</f>
         <v>131</v>
       </c>
-      <c r="B169" s="146"/>
+      <c r="B169" s="151"/>
       <c r="C169" s="35" t="s">
         <v>368</v>
       </c>
@@ -5693,18 +5693,18 @@
       <c r="F169" s="40"/>
       <c r="G169" s="12"/>
     </row>
-    <row r="170" spans="1:8" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A170" s="127" t="s">
+    <row r="170" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A170" s="177" t="s">
         <v>206</v>
       </c>
-      <c r="B170" s="127"/>
-      <c r="C170" s="127"/>
-      <c r="D170" s="127"/>
+      <c r="B170" s="177"/>
+      <c r="C170" s="177"/>
+      <c r="D170" s="177"/>
       <c r="E170" s="77"/>
       <c r="F170" s="67"/>
       <c r="G170" s="12"/>
     </row>
-    <row r="171" spans="1:8" ht="33" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:8" ht="33" x14ac:dyDescent="0.25">
       <c r="A171" s="37">
         <f>IF(LEN(C171)=0,"",COUNTA($C$34:C171))</f>
         <v>132</v>
@@ -5722,7 +5722,7 @@
       <c r="F171" s="40"/>
       <c r="G171" s="12"/>
     </row>
-    <row r="172" spans="1:8" ht="33" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:8" ht="33" x14ac:dyDescent="0.25">
       <c r="A172" s="37">
         <f>IF(LEN(C172)=0,"",COUNTA($C$34:C172))</f>
         <v>133</v>
@@ -5740,7 +5740,7 @@
       <c r="F172" s="40"/>
       <c r="G172" s="12"/>
     </row>
-    <row r="173" spans="1:8" ht="33" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:8" ht="33" x14ac:dyDescent="0.25">
       <c r="A173" s="37">
         <f>IF(LEN(C173)=0,"",COUNTA($C$34:C173))</f>
         <v>134</v>
@@ -5759,12 +5759,12 @@
       <c r="G173" s="12"/>
       <c r="H173" s="12"/>
     </row>
-    <row r="174" spans="1:8" s="15" customFormat="1" ht="49.5" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:8" s="15" customFormat="1" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A174" s="37">
         <f>IF(LEN(C174)=0,"",COUNTA($C$34:C174))</f>
         <v>135</v>
       </c>
-      <c r="B174" s="143" t="s">
+      <c r="B174" s="139" t="s">
         <v>203</v>
       </c>
       <c r="C174" s="35" t="s">
@@ -5778,12 +5778,12 @@
       </c>
       <c r="F174" s="40"/>
     </row>
-    <row r="175" spans="1:8" s="15" customFormat="1" ht="33" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:8" s="15" customFormat="1" ht="33" x14ac:dyDescent="0.25">
       <c r="A175" s="37">
         <f>IF(LEN(C175)=0,"",COUNTA($C$34:C175))</f>
         <v>136</v>
       </c>
-      <c r="B175" s="145"/>
+      <c r="B175" s="141"/>
       <c r="C175" s="35" t="s">
         <v>224</v>
       </c>
@@ -5795,17 +5795,17 @@
       </c>
       <c r="F175" s="40"/>
     </row>
-    <row r="176" spans="1:8" s="16" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A176" s="131" t="s">
+    <row r="176" spans="1:8" s="16" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A176" s="170" t="s">
         <v>163</v>
       </c>
-      <c r="B176" s="132"/>
-      <c r="C176" s="132"/>
-      <c r="D176" s="133"/>
+      <c r="B176" s="171"/>
+      <c r="C176" s="171"/>
+      <c r="D176" s="172"/>
       <c r="E176" s="120"/>
       <c r="F176" s="62"/>
     </row>
-    <row r="177" spans="1:7" s="16" customFormat="1" ht="33" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:7" s="16" customFormat="1" ht="33" x14ac:dyDescent="0.25">
       <c r="A177" s="37">
         <f>IF(LEN(C177)=0,"",COUNTA($C$34:C177))</f>
         <v>137</v>
@@ -5820,11 +5820,11 @@
       <c r="E177" s="83">
         <v>71000</v>
       </c>
-      <c r="F177" s="125" t="s">
+      <c r="F177" s="182" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="178" spans="1:7" s="16" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:7" s="16" customFormat="1" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A178" s="37">
         <f>IF(LEN(C178)=0,"",COUNTA($C$34:C178))</f>
         <v>138</v>
@@ -5839,20 +5839,20 @@
       <c r="E178" s="83">
         <v>86000</v>
       </c>
-      <c r="F178" s="126"/>
-    </row>
-    <row r="179" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A179" s="127" t="s">
+      <c r="F178" s="183"/>
+    </row>
+    <row r="179" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A179" s="177" t="s">
         <v>168</v>
       </c>
-      <c r="B179" s="127"/>
-      <c r="C179" s="127"/>
-      <c r="D179" s="127"/>
+      <c r="B179" s="177"/>
+      <c r="C179" s="177"/>
+      <c r="D179" s="177"/>
       <c r="E179" s="77"/>
       <c r="F179" s="67"/>
       <c r="G179" s="12"/>
     </row>
-    <row r="180" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="37">
         <f>IF(LEN(C180)=0,"",COUNTA($C$34:C180))</f>
         <v>139</v>
@@ -5867,12 +5867,12 @@
       <c r="E180" s="106">
         <v>1968000</v>
       </c>
-      <c r="F180" s="128" t="s">
+      <c r="F180" s="157" t="s">
         <v>325</v>
       </c>
       <c r="G180" s="12"/>
     </row>
-    <row r="181" spans="1:7" ht="33" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:7" ht="33" x14ac:dyDescent="0.25">
       <c r="A181" s="37">
         <f>IF(LEN(C181)=0,"",COUNTA($C$34:C181))</f>
         <v>140</v>
@@ -5887,10 +5887,10 @@
       <c r="E181" s="106">
         <v>2952000</v>
       </c>
-      <c r="F181" s="129"/>
+      <c r="F181" s="158"/>
       <c r="G181" s="12"/>
     </row>
-    <row r="182" spans="1:7" ht="66" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:7" ht="66" x14ac:dyDescent="0.25">
       <c r="A182" s="37">
         <f>IF(LEN(C182)=0,"",COUNTA($C$34:C182))</f>
         <v>141</v>
@@ -5905,10 +5905,10 @@
       <c r="E182" s="106">
         <v>4100000</v>
       </c>
-      <c r="F182" s="130"/>
+      <c r="F182" s="159"/>
       <c r="G182" s="12"/>
     </row>
-    <row r="183" spans="1:7" ht="49.5" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:7" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A183" s="37">
         <f>IF(LEN(C183)=0,"",COUNTA($C$34:C183))</f>
         <v>142</v>
@@ -5926,7 +5926,7 @@
       <c r="F183" s="104"/>
       <c r="G183" s="12"/>
     </row>
-    <row r="184" spans="1:7" ht="132" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:7" ht="148.5" x14ac:dyDescent="0.25">
       <c r="A184" s="37">
         <f>IF(LEN(C184)=0,"",COUNTA($C$34:C184))</f>
         <v>143</v>
@@ -5946,7 +5946,7 @@
       </c>
       <c r="G184" s="12"/>
     </row>
-    <row r="185" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A185" s="37">
         <f>IF(LEN(C185)=0,"",COUNTA($C$34:C185))</f>
         <v>144</v>
@@ -5964,7 +5964,7 @@
       <c r="F185" s="40"/>
       <c r="G185" s="12"/>
     </row>
-    <row r="186" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A186" s="37">
         <f>IF(LEN(C186)=0,"",COUNTA($C$34:C186))</f>
         <v>145</v>
@@ -5982,7 +5982,7 @@
       <c r="F186" s="40"/>
       <c r="G186" s="12"/>
     </row>
-    <row r="187" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A187" s="37">
         <f>IF(LEN(C187)=0,"",COUNTA($C$34:C187))</f>
         <v>146</v>
@@ -6000,18 +6000,18 @@
       <c r="F187" s="40"/>
       <c r="G187" s="12"/>
     </row>
-    <row r="188" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A188" s="127" t="s">
+    <row r="188" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A188" s="177" t="s">
         <v>263</v>
       </c>
-      <c r="B188" s="127"/>
-      <c r="C188" s="127"/>
-      <c r="D188" s="127"/>
+      <c r="B188" s="177"/>
+      <c r="C188" s="177"/>
+      <c r="D188" s="177"/>
       <c r="E188" s="77"/>
       <c r="F188" s="67"/>
       <c r="G188" s="12"/>
     </row>
-    <row r="189" spans="1:7" ht="33" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:7" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A189" s="37">
         <f>IF(LEN(C189)=0,"",COUNTA($C$34:C189))</f>
         <v>147</v>
@@ -6029,18 +6029,18 @@
       <c r="F189" s="40"/>
       <c r="G189" s="12"/>
     </row>
-    <row r="190" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A190" s="127" t="s">
+    <row r="190" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A190" s="177" t="s">
         <v>233</v>
       </c>
-      <c r="B190" s="127"/>
-      <c r="C190" s="127"/>
-      <c r="D190" s="127"/>
+      <c r="B190" s="177"/>
+      <c r="C190" s="177"/>
+      <c r="D190" s="177"/>
       <c r="E190" s="77"/>
       <c r="F190" s="67"/>
       <c r="G190" s="12"/>
     </row>
-    <row r="191" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A191" s="37">
         <f>IF(LEN(C191)=0,"",COUNTA($C$34:C191))</f>
         <v>148</v>
@@ -6058,7 +6058,7 @@
       <c r="F191" s="40"/>
       <c r="G191" s="12"/>
     </row>
-    <row r="192" spans="1:7" ht="33" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:7" ht="33" x14ac:dyDescent="0.25">
       <c r="A192" s="37">
         <f>IF(LEN(C192)=0,"",COUNTA($C$34:C192))</f>
         <v>149</v>
@@ -6076,7 +6076,7 @@
       <c r="F192" s="40"/>
       <c r="G192" s="12"/>
     </row>
-    <row r="193" spans="1:7" ht="33" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:7" ht="33" x14ac:dyDescent="0.25">
       <c r="A193" s="37">
         <f>IF(LEN(C193)=0,"",COUNTA($C$34:C193))</f>
         <v>150</v>
@@ -6094,7 +6094,7 @@
       <c r="F193" s="40"/>
       <c r="G193" s="12"/>
     </row>
-    <row r="194" spans="1:7" ht="33" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:7" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A194" s="37">
         <f>IF(LEN(C194)=0,"",COUNTA($C$34:C194))</f>
         <v>151</v>
@@ -6112,7 +6112,7 @@
       <c r="F194" s="40"/>
       <c r="G194" s="12"/>
     </row>
-    <row r="195" spans="1:7" ht="49.5" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:7" ht="66" x14ac:dyDescent="0.25">
       <c r="A195" s="37">
         <f>IF(LEN(C195)=0,"",COUNTA($C$34:C195))</f>
         <v>152</v>
@@ -6130,7 +6130,7 @@
       <c r="F195" s="40"/>
       <c r="G195" s="12"/>
     </row>
-    <row r="196" spans="1:7" ht="33" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:7" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A196" s="37">
         <f>IF(LEN(C196)=0,"",COUNTA($C$34:C196))</f>
         <v>153</v>
@@ -6148,7 +6148,7 @@
       <c r="F196" s="40"/>
       <c r="G196" s="12"/>
     </row>
-    <row r="197" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A197" s="37">
         <f>IF(LEN(C197)=0,"",COUNTA($C$34:C197))</f>
         <v>154</v>
@@ -6166,7 +6166,7 @@
       <c r="F197" s="40"/>
       <c r="G197" s="12"/>
     </row>
-    <row r="198" spans="1:7" ht="49.5" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:7" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A198" s="37">
         <f>IF(LEN(C198)=0,"",COUNTA($C$34:C198))</f>
         <v>155</v>
@@ -6184,7 +6184,7 @@
       <c r="F198" s="40"/>
       <c r="G198" s="12"/>
     </row>
-    <row r="199" spans="1:7" ht="66" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:7" ht="66" x14ac:dyDescent="0.25">
       <c r="A199" s="37">
         <f>IF(LEN(C199)=0,"",COUNTA($C$34:C199))</f>
         <v>156</v>
@@ -6202,7 +6202,7 @@
       <c r="F199" s="40"/>
       <c r="G199" s="12"/>
     </row>
-    <row r="200" spans="1:7" ht="33" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:7" ht="33" x14ac:dyDescent="0.25">
       <c r="A200" s="37">
         <f>IF(LEN(C200)=0,"",COUNTA($C$34:C200))</f>
         <v>157</v>
@@ -6220,18 +6220,18 @@
       <c r="F200" s="40"/>
       <c r="G200" s="12"/>
     </row>
-    <row r="201" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A201" s="131" t="s">
+    <row r="201" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A201" s="170" t="s">
         <v>322</v>
       </c>
-      <c r="B201" s="132"/>
-      <c r="C201" s="132"/>
-      <c r="D201" s="133"/>
+      <c r="B201" s="171"/>
+      <c r="C201" s="171"/>
+      <c r="D201" s="172"/>
       <c r="E201" s="66"/>
       <c r="F201" s="67"/>
       <c r="G201" s="12"/>
     </row>
-    <row r="202" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A202" s="37">
         <f>IF(LEN(C202)=0,"",COUNTA($C$34:C202))</f>
         <v>158</v>
@@ -6247,7 +6247,7 @@
       <c r="F202" s="40"/>
       <c r="G202" s="12"/>
     </row>
-    <row r="203" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A203" s="37">
         <f>IF(LEN(C203)=0,"",COUNTA($C$34:C203))</f>
         <v>159</v>
@@ -6265,7 +6265,7 @@
       <c r="F203" s="40"/>
       <c r="G203" s="12"/>
     </row>
-    <row r="204" spans="1:7" ht="115.5" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:7" ht="132" x14ac:dyDescent="0.25">
       <c r="A204" s="37">
         <f>IF(LEN(C204)=0,"",COUNTA($C$34:C204))</f>
         <v>160</v>
@@ -6283,7 +6283,7 @@
       <c r="F204" s="40"/>
       <c r="G204" s="12"/>
     </row>
-    <row r="205" spans="1:7" ht="82.5" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:7" ht="99" x14ac:dyDescent="0.25">
       <c r="A205" s="37">
         <f>IF(LEN(C205)=0,"",COUNTA($C$34:C205))</f>
         <v>161</v>
@@ -6301,7 +6301,7 @@
       <c r="F205" s="40"/>
       <c r="G205" s="12"/>
     </row>
-    <row r="206" spans="1:7" ht="49.5" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:7" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A206" s="37">
         <f>IF(LEN(C206)=0,"",COUNTA($C$34:C206))</f>
         <v>162</v>
@@ -6319,18 +6319,18 @@
       <c r="F206" s="40"/>
       <c r="G206" s="12"/>
     </row>
-    <row r="207" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A207" s="131" t="s">
+    <row r="207" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A207" s="170" t="s">
         <v>221</v>
       </c>
-      <c r="B207" s="132"/>
-      <c r="C207" s="132"/>
-      <c r="D207" s="133"/>
+      <c r="B207" s="171"/>
+      <c r="C207" s="171"/>
+      <c r="D207" s="172"/>
       <c r="E207" s="66"/>
       <c r="F207" s="67"/>
       <c r="G207" s="12"/>
     </row>
-    <row r="208" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A208" s="37">
         <f>IF(LEN(C208)=0,"",COUNTA($C$34:C208))</f>
         <v>163</v>
@@ -6348,7 +6348,7 @@
       <c r="F208" s="40"/>
       <c r="G208" s="12"/>
     </row>
-    <row r="209" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A209" s="37">
         <f>IF(LEN(C209)=0,"",COUNTA($C$34:C209))</f>
         <v>164</v>
@@ -6366,7 +6366,7 @@
       <c r="F209" s="40"/>
       <c r="G209" s="12"/>
     </row>
-    <row r="210" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A210" s="37">
         <f>IF(LEN(C210)=0,"",COUNTA($C$34:C210))</f>
         <v>165</v>
@@ -6384,18 +6384,18 @@
       <c r="F210" s="40"/>
       <c r="G210" s="12"/>
     </row>
-    <row r="211" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A211" s="131" t="s">
+    <row r="211" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A211" s="170" t="s">
         <v>210</v>
       </c>
-      <c r="B211" s="132"/>
-      <c r="C211" s="132"/>
-      <c r="D211" s="133"/>
+      <c r="B211" s="171"/>
+      <c r="C211" s="171"/>
+      <c r="D211" s="172"/>
       <c r="E211" s="66"/>
       <c r="F211" s="67"/>
       <c r="G211" s="12"/>
     </row>
-    <row r="212" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A212" s="37">
         <f>IF(LEN(C212)=0,"",COUNTA($C$34:C212))</f>
         <v>166</v>
@@ -6405,13 +6405,13 @@
         <v>211</v>
       </c>
       <c r="D212" s="35"/>
-      <c r="E212" s="134">
+      <c r="E212" s="145">
         <v>183000</v>
       </c>
       <c r="F212" s="40"/>
       <c r="G212" s="12"/>
     </row>
-    <row r="213" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A213" s="37">
         <f>IF(LEN(C213)=0,"",COUNTA($C$34:C213))</f>
         <v>167</v>
@@ -6421,11 +6421,11 @@
         <v>212</v>
       </c>
       <c r="D213" s="35"/>
-      <c r="E213" s="135"/>
+      <c r="E213" s="146"/>
       <c r="F213" s="40"/>
       <c r="G213" s="12"/>
     </row>
-    <row r="214" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A214" s="37">
         <f>IF(LEN(C214)=0,"",COUNTA($C$34:C214))</f>
         <v>168</v>
@@ -6435,11 +6435,11 @@
         <v>213</v>
       </c>
       <c r="D214" s="35"/>
-      <c r="E214" s="135"/>
+      <c r="E214" s="146"/>
       <c r="F214" s="40"/>
       <c r="G214" s="12"/>
     </row>
-    <row r="215" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A215" s="37">
         <f>IF(LEN(C215)=0,"",COUNTA($C$34:C215))</f>
         <v>169</v>
@@ -6449,22 +6449,22 @@
         <v>214</v>
       </c>
       <c r="D215" s="35"/>
-      <c r="E215" s="136"/>
+      <c r="E215" s="147"/>
       <c r="F215" s="40"/>
       <c r="G215" s="12"/>
     </row>
-    <row r="216" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A216" s="131" t="s">
+    <row r="216" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A216" s="170" t="s">
         <v>412</v>
       </c>
-      <c r="B216" s="132"/>
-      <c r="C216" s="132"/>
-      <c r="D216" s="133"/>
+      <c r="B216" s="171"/>
+      <c r="C216" s="171"/>
+      <c r="D216" s="172"/>
       <c r="E216" s="66"/>
       <c r="F216" s="67"/>
       <c r="G216" s="12"/>
     </row>
-    <row r="217" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A217" s="37">
         <f>IF(LEN(C217)=0,"",COUNTA($C$34:C217))</f>
         <v>170</v>
@@ -6480,7 +6480,7 @@
       <c r="F217" s="40"/>
       <c r="G217" s="12"/>
     </row>
-    <row r="218" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A218" s="37">
         <f>IF(LEN(C218)=0,"",COUNTA($C$34:C218))</f>
         <v>171</v>
@@ -6496,7 +6496,7 @@
       <c r="F218" s="40"/>
       <c r="G218" s="12"/>
     </row>
-    <row r="219" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A219" s="37">
         <f>IF(LEN(C219)=0,"",COUNTA($C$34:C219))</f>
         <v>172</v>
@@ -6512,7 +6512,7 @@
       <c r="F219" s="40"/>
       <c r="G219" s="12"/>
     </row>
-    <row r="220" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A220" s="37">
         <f>IF(LEN(C220)=0,"",COUNTA($C$34:C220))</f>
         <v>173</v>
@@ -6528,7 +6528,7 @@
       <c r="F220" s="40"/>
       <c r="G220" s="12"/>
     </row>
-    <row r="221" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A221" s="90"/>
       <c r="B221" s="91"/>
       <c r="C221" s="90"/>
@@ -6536,67 +6536,67 @@
       <c r="E221" s="92"/>
       <c r="F221" s="93"/>
     </row>
-    <row r="222" spans="1:7" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A222" s="124" t="s">
+    <row r="222" spans="1:7" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A222" s="181" t="s">
         <v>27</v>
       </c>
-      <c r="B222" s="124"/>
-      <c r="C222" s="124"/>
-      <c r="D222" s="124"/>
+      <c r="B222" s="181"/>
+      <c r="C222" s="181"/>
+      <c r="D222" s="181"/>
       <c r="E222" s="26"/>
       <c r="F222" s="94"/>
     </row>
-    <row r="223" spans="1:7" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:7" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A223" s="95"/>
-      <c r="B223" s="122" t="s">
+      <c r="B223" s="184" t="s">
         <v>266</v>
       </c>
-      <c r="C223" s="122"/>
-      <c r="D223" s="122"/>
-      <c r="E223" s="122"/>
-      <c r="F223" s="122"/>
-    </row>
-    <row r="224" spans="1:7" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="C223" s="184"/>
+      <c r="D223" s="184"/>
+      <c r="E223" s="184"/>
+      <c r="F223" s="184"/>
+    </row>
+    <row r="224" spans="1:7" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A224" s="95"/>
-      <c r="B224" s="122" t="s">
+      <c r="B224" s="184" t="s">
         <v>417</v>
       </c>
-      <c r="C224" s="122"/>
-      <c r="D224" s="122"/>
-      <c r="E224" s="122"/>
-      <c r="F224" s="122"/>
-    </row>
-    <row r="225" spans="1:6" s="2" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C224" s="184"/>
+      <c r="D224" s="184"/>
+      <c r="E224" s="184"/>
+      <c r="F224" s="184"/>
+    </row>
+    <row r="225" spans="1:6" s="2" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A225" s="96"/>
-      <c r="B225" s="122" t="s">
+      <c r="B225" s="184" t="s">
         <v>28</v>
       </c>
-      <c r="C225" s="122"/>
-      <c r="D225" s="122"/>
-      <c r="E225" s="122"/>
-      <c r="F225" s="122"/>
-    </row>
-    <row r="226" spans="1:6" s="17" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C225" s="184"/>
+      <c r="D225" s="184"/>
+      <c r="E225" s="184"/>
+      <c r="F225" s="184"/>
+    </row>
+    <row r="226" spans="1:6" s="17" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A226" s="97"/>
-      <c r="B226" s="123" t="s">
+      <c r="B226" s="185" t="s">
         <v>29</v>
       </c>
-      <c r="C226" s="123"/>
-      <c r="D226" s="123"/>
-      <c r="E226" s="123"/>
-      <c r="F226" s="123"/>
-    </row>
-    <row r="227" spans="1:6" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C226" s="185"/>
+      <c r="D226" s="185"/>
+      <c r="E226" s="185"/>
+      <c r="F226" s="185"/>
+    </row>
+    <row r="227" spans="1:6" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A227" s="94"/>
-      <c r="B227" s="122" t="s">
+      <c r="B227" s="184" t="s">
         <v>30</v>
       </c>
-      <c r="C227" s="122"/>
-      <c r="D227" s="122"/>
-      <c r="E227" s="122"/>
-      <c r="F227" s="122"/>
-    </row>
-    <row r="228" spans="1:6" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="C227" s="184"/>
+      <c r="D227" s="184"/>
+      <c r="E227" s="184"/>
+      <c r="F227" s="184"/>
+    </row>
+    <row r="228" spans="1:6" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A228" s="94"/>
       <c r="B228" s="96" t="s">
         <v>31</v>
@@ -6606,7 +6606,7 @@
       <c r="E228" s="26"/>
       <c r="F228" s="23"/>
     </row>
-    <row r="229" spans="1:6" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:6" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A229" s="94"/>
       <c r="B229" s="96" t="s">
         <v>32</v>
@@ -6616,7 +6616,7 @@
       <c r="E229" s="26"/>
       <c r="F229" s="23"/>
     </row>
-    <row r="230" spans="1:6" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:6" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A230" s="100" t="s">
         <v>33</v>
       </c>
@@ -6626,7 +6626,7 @@
       <c r="E230" s="119"/>
       <c r="F230" s="99"/>
     </row>
-    <row r="231" spans="1:6" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:6" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A231" s="94"/>
       <c r="B231" s="23" t="s">
         <v>36</v>
@@ -6636,7 +6636,7 @@
       <c r="E231" s="102"/>
       <c r="F231" s="23"/>
     </row>
-    <row r="232" spans="1:6" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:6" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A232" s="94"/>
       <c r="B232" s="23" t="s">
         <v>419</v>
@@ -6646,7 +6646,7 @@
       <c r="E232" s="102"/>
       <c r="F232" s="23"/>
     </row>
-    <row r="233" spans="1:6" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:6" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A233" s="94"/>
       <c r="B233" s="23" t="s">
         <v>37</v>
@@ -6658,6 +6658,58 @@
     </row>
   </sheetData>
   <mergeCells count="66">
+    <mergeCell ref="B223:F223"/>
+    <mergeCell ref="B224:F224"/>
+    <mergeCell ref="B225:F225"/>
+    <mergeCell ref="B226:F226"/>
+    <mergeCell ref="B227:F227"/>
+    <mergeCell ref="A222:D222"/>
+    <mergeCell ref="F177:F178"/>
+    <mergeCell ref="A179:D179"/>
+    <mergeCell ref="F180:F182"/>
+    <mergeCell ref="A188:D188"/>
+    <mergeCell ref="A190:D190"/>
+    <mergeCell ref="A201:D201"/>
+    <mergeCell ref="A207:D207"/>
+    <mergeCell ref="A211:D211"/>
+    <mergeCell ref="E212:E215"/>
+    <mergeCell ref="A216:D216"/>
+    <mergeCell ref="A176:D176"/>
+    <mergeCell ref="B97:B98"/>
+    <mergeCell ref="B100:B113"/>
+    <mergeCell ref="A114:D114"/>
+    <mergeCell ref="A117:D117"/>
+    <mergeCell ref="B118:B126"/>
+    <mergeCell ref="B127:B132"/>
+    <mergeCell ref="B133:B139"/>
+    <mergeCell ref="B140:B169"/>
+    <mergeCell ref="A170:D170"/>
+    <mergeCell ref="B174:B175"/>
+    <mergeCell ref="B95:B96"/>
+    <mergeCell ref="A59:D59"/>
+    <mergeCell ref="B60:B72"/>
+    <mergeCell ref="B73:B75"/>
+    <mergeCell ref="D73:D75"/>
+    <mergeCell ref="A80:D80"/>
+    <mergeCell ref="B81:B88"/>
+    <mergeCell ref="B89:B90"/>
+    <mergeCell ref="B91:B93"/>
+    <mergeCell ref="A94:D94"/>
+    <mergeCell ref="F73:F75"/>
+    <mergeCell ref="B76:B79"/>
+    <mergeCell ref="D76:D77"/>
+    <mergeCell ref="B49:B52"/>
+    <mergeCell ref="F50:F52"/>
+    <mergeCell ref="B54:B55"/>
+    <mergeCell ref="F54:F55"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="F57:F58"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="B40:B44"/>
+    <mergeCell ref="F40:F44"/>
+    <mergeCell ref="B46:B48"/>
+    <mergeCell ref="F46:F48"/>
     <mergeCell ref="A28:D28"/>
     <mergeCell ref="D1:F5"/>
     <mergeCell ref="A7:F7"/>
@@ -6672,58 +6724,6 @@
     <mergeCell ref="B24:B25"/>
     <mergeCell ref="E24:E25"/>
     <mergeCell ref="F24:F25"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="B40:B44"/>
-    <mergeCell ref="F40:F44"/>
-    <mergeCell ref="B46:B48"/>
-    <mergeCell ref="F46:F48"/>
-    <mergeCell ref="F73:F75"/>
-    <mergeCell ref="B76:B79"/>
-    <mergeCell ref="D76:D77"/>
-    <mergeCell ref="B49:B52"/>
-    <mergeCell ref="F50:F52"/>
-    <mergeCell ref="B54:B55"/>
-    <mergeCell ref="F54:F55"/>
-    <mergeCell ref="B57:B58"/>
-    <mergeCell ref="F57:F58"/>
-    <mergeCell ref="B95:B96"/>
-    <mergeCell ref="A59:D59"/>
-    <mergeCell ref="B60:B72"/>
-    <mergeCell ref="B73:B75"/>
-    <mergeCell ref="D73:D75"/>
-    <mergeCell ref="A80:D80"/>
-    <mergeCell ref="B81:B88"/>
-    <mergeCell ref="B89:B90"/>
-    <mergeCell ref="B91:B93"/>
-    <mergeCell ref="A94:D94"/>
-    <mergeCell ref="A176:D176"/>
-    <mergeCell ref="B97:B98"/>
-    <mergeCell ref="B100:B113"/>
-    <mergeCell ref="A114:D114"/>
-    <mergeCell ref="A117:D117"/>
-    <mergeCell ref="B118:B126"/>
-    <mergeCell ref="B127:B132"/>
-    <mergeCell ref="B133:B139"/>
-    <mergeCell ref="B140:B169"/>
-    <mergeCell ref="A170:D170"/>
-    <mergeCell ref="B174:B175"/>
-    <mergeCell ref="A222:D222"/>
-    <mergeCell ref="F177:F178"/>
-    <mergeCell ref="A179:D179"/>
-    <mergeCell ref="F180:F182"/>
-    <mergeCell ref="A188:D188"/>
-    <mergeCell ref="A190:D190"/>
-    <mergeCell ref="A201:D201"/>
-    <mergeCell ref="A207:D207"/>
-    <mergeCell ref="A211:D211"/>
-    <mergeCell ref="E212:E215"/>
-    <mergeCell ref="A216:D216"/>
-    <mergeCell ref="B223:F223"/>
-    <mergeCell ref="B224:F224"/>
-    <mergeCell ref="B225:F225"/>
-    <mergeCell ref="B226:F226"/>
-    <mergeCell ref="B227:F227"/>
   </mergeCells>
   <pageMargins left="0.35433070866141736" right="0.15748031496062992" top="0.23622047244094491" bottom="0.19685039370078741" header="0.15748031496062992" footer="0.15748031496062992"/>
   <pageSetup paperSize="9" scale="70" fitToHeight="0" orientation="landscape" r:id="rId1"/>

--- a/Hoàng/SALE/BÁO GIÁ KSK 2025 - THAM KHẢO.xlsx
+++ b/Hoàng/SALE/BÁO GIÁ KSK 2025 - THAM KHẢO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\DATA-TN\Hoàng\SALE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E949AEE-309F-4264-859D-80E5589003BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EA85B94-E323-4654-A8D4-1B875E793AEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2214,15 +2214,132 @@
     <xf numFmtId="3" fontId="11" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="14" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="14" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="14" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="13" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="13" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="13" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
@@ -2265,15 +2382,6 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2283,15 +2391,6 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="13" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="13" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="13" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2301,110 +2400,11 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="3" fontId="6" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="6" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="14" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="14" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="14" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2772,8 +2772,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46C4EFAC-5358-4031-B8BC-663929F6ADDF}">
   <dimension ref="A1:K233"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A204" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="L206" sqref="L206"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2793,43 +2793,43 @@
       <c r="A1" s="22"/>
       <c r="B1" s="22"/>
       <c r="C1" s="22"/>
-      <c r="D1" s="125" t="s">
+      <c r="D1" s="164" t="s">
         <v>312</v>
       </c>
-      <c r="E1" s="125"/>
-      <c r="F1" s="125"/>
+      <c r="E1" s="164"/>
+      <c r="F1" s="164"/>
     </row>
     <row r="2" spans="1:11" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A2" s="24"/>
       <c r="B2" s="24"/>
       <c r="C2" s="24"/>
-      <c r="D2" s="126"/>
-      <c r="E2" s="126"/>
-      <c r="F2" s="126"/>
+      <c r="D2" s="165"/>
+      <c r="E2" s="165"/>
+      <c r="F2" s="165"/>
     </row>
     <row r="3" spans="1:11" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A3" s="24"/>
       <c r="B3" s="24"/>
       <c r="C3" s="24"/>
-      <c r="D3" s="126"/>
-      <c r="E3" s="126"/>
-      <c r="F3" s="126"/>
+      <c r="D3" s="165"/>
+      <c r="E3" s="165"/>
+      <c r="F3" s="165"/>
     </row>
     <row r="4" spans="1:11" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A4" s="24"/>
       <c r="B4" s="24"/>
       <c r="C4" s="24"/>
-      <c r="D4" s="126"/>
-      <c r="E4" s="126"/>
-      <c r="F4" s="126"/>
+      <c r="D4" s="165"/>
+      <c r="E4" s="165"/>
+      <c r="F4" s="165"/>
     </row>
     <row r="5" spans="1:11" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A5" s="24"/>
       <c r="B5" s="24"/>
       <c r="C5" s="24"/>
-      <c r="D5" s="126"/>
-      <c r="E5" s="126"/>
-      <c r="F5" s="126"/>
+      <c r="D5" s="165"/>
+      <c r="E5" s="165"/>
+      <c r="F5" s="165"/>
     </row>
     <row r="6" spans="1:11" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A6" s="23"/>
@@ -2840,14 +2840,14 @@
       <c r="F6" s="23"/>
     </row>
     <row r="7" spans="1:11" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="127" t="s">
+      <c r="A7" s="166" t="s">
         <v>418</v>
       </c>
-      <c r="B7" s="127"/>
-      <c r="C7" s="127"/>
-      <c r="D7" s="127"/>
-      <c r="E7" s="127"/>
-      <c r="F7" s="127"/>
+      <c r="B7" s="166"/>
+      <c r="C7" s="166"/>
+      <c r="D7" s="166"/>
+      <c r="E7" s="166"/>
+      <c r="F7" s="166"/>
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
       <c r="I7" s="6"/>
@@ -2869,27 +2869,27 @@
     </row>
     <row r="9" spans="1:11" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A9" s="28"/>
-      <c r="B9" s="128" t="s">
+      <c r="B9" s="167" t="s">
         <v>38</v>
       </c>
-      <c r="C9" s="128"/>
-      <c r="D9" s="128"/>
-      <c r="E9" s="128"/>
-      <c r="F9" s="128"/>
+      <c r="C9" s="167"/>
+      <c r="D9" s="167"/>
+      <c r="E9" s="167"/>
+      <c r="F9" s="167"/>
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
       <c r="I9" s="7"/>
       <c r="J9" s="7"/>
     </row>
     <row r="10" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="129" t="s">
+      <c r="A10" s="168" t="s">
         <v>39</v>
       </c>
-      <c r="B10" s="130"/>
-      <c r="C10" s="130"/>
-      <c r="D10" s="130"/>
-      <c r="E10" s="130"/>
-      <c r="F10" s="131"/>
+      <c r="B10" s="169"/>
+      <c r="C10" s="169"/>
+      <c r="D10" s="169"/>
+      <c r="E10" s="169"/>
+      <c r="F10" s="170"/>
       <c r="G10" s="8"/>
       <c r="H10" s="8"/>
       <c r="I10" s="8"/>
@@ -2897,12 +2897,12 @@
       <c r="K10" s="8"/>
     </row>
     <row r="11" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="132"/>
-      <c r="B11" s="133"/>
-      <c r="C11" s="133"/>
-      <c r="D11" s="133"/>
-      <c r="E11" s="133"/>
-      <c r="F11" s="134"/>
+      <c r="A11" s="171"/>
+      <c r="B11" s="172"/>
+      <c r="C11" s="172"/>
+      <c r="D11" s="172"/>
+      <c r="E11" s="172"/>
+      <c r="F11" s="173"/>
       <c r="G11" s="21"/>
       <c r="H11" s="21"/>
       <c r="I11" s="21"/>
@@ -2921,10 +2921,10 @@
       <c r="A13" s="33" t="s">
         <v>259</v>
       </c>
-      <c r="B13" s="135" t="s">
+      <c r="B13" s="174" t="s">
         <v>2</v>
       </c>
-      <c r="C13" s="135"/>
+      <c r="C13" s="174"/>
       <c r="D13" s="33" t="s">
         <v>3</v>
       </c>
@@ -2937,78 +2937,78 @@
       <c r="G13" s="10"/>
     </row>
     <row r="14" spans="1:11" ht="49.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="136">
+      <c r="A14" s="175">
         <f>IF(LEN(C14)=0,"",COUNTA($C$14:C14))</f>
         <v>1</v>
       </c>
-      <c r="B14" s="139" t="s">
+      <c r="B14" s="143" t="s">
         <v>1</v>
       </c>
-      <c r="C14" s="142" t="s">
+      <c r="C14" s="178" t="s">
         <v>326</v>
       </c>
       <c r="D14" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="E14" s="145">
+      <c r="E14" s="134">
         <v>200000</v>
       </c>
-      <c r="F14" s="148"/>
+      <c r="F14" s="181"/>
       <c r="G14" s="11"/>
     </row>
     <row r="15" spans="1:11" ht="49.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="137"/>
-      <c r="B15" s="140"/>
-      <c r="C15" s="143"/>
+      <c r="A15" s="176"/>
+      <c r="B15" s="144"/>
+      <c r="C15" s="179"/>
       <c r="D15" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="E15" s="146"/>
-      <c r="F15" s="149"/>
+      <c r="E15" s="135"/>
+      <c r="F15" s="182"/>
       <c r="G15" s="11"/>
     </row>
     <row r="16" spans="1:11" ht="33" x14ac:dyDescent="0.25">
-      <c r="A16" s="137"/>
-      <c r="B16" s="140"/>
-      <c r="C16" s="143"/>
+      <c r="A16" s="176"/>
+      <c r="B16" s="144"/>
+      <c r="C16" s="179"/>
       <c r="D16" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="E16" s="146"/>
-      <c r="F16" s="149"/>
+      <c r="E16" s="135"/>
+      <c r="F16" s="182"/>
       <c r="G16" s="11"/>
     </row>
     <row r="17" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="137"/>
-      <c r="B17" s="140"/>
-      <c r="C17" s="143"/>
+      <c r="A17" s="176"/>
+      <c r="B17" s="144"/>
+      <c r="C17" s="179"/>
       <c r="D17" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="E17" s="146"/>
-      <c r="F17" s="149"/>
+      <c r="E17" s="135"/>
+      <c r="F17" s="182"/>
       <c r="G17" s="12"/>
     </row>
     <row r="18" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="137"/>
-      <c r="B18" s="140"/>
-      <c r="C18" s="143"/>
+      <c r="A18" s="176"/>
+      <c r="B18" s="144"/>
+      <c r="C18" s="179"/>
       <c r="D18" s="35" t="s">
         <v>411</v>
       </c>
-      <c r="E18" s="146"/>
-      <c r="F18" s="149"/>
+      <c r="E18" s="135"/>
+      <c r="F18" s="182"/>
       <c r="G18" s="12"/>
     </row>
     <row r="19" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="138"/>
-      <c r="B19" s="141"/>
-      <c r="C19" s="144"/>
+      <c r="A19" s="177"/>
+      <c r="B19" s="145"/>
+      <c r="C19" s="180"/>
       <c r="D19" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="E19" s="147"/>
-      <c r="F19" s="150"/>
+      <c r="E19" s="136"/>
+      <c r="F19" s="183"/>
       <c r="G19" s="12"/>
     </row>
     <row r="20" spans="1:7" ht="33" x14ac:dyDescent="0.25">
@@ -3096,7 +3096,7 @@
         <f>IF(LEN(C24)=0,"",COUNTA($C$14:C24))</f>
         <v>6</v>
       </c>
-      <c r="B24" s="151" t="s">
+      <c r="B24" s="146" t="s">
         <v>40</v>
       </c>
       <c r="C24" s="41" t="s">
@@ -3105,10 +3105,10 @@
       <c r="D24" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="E24" s="152">
+      <c r="E24" s="184">
         <v>60000</v>
       </c>
-      <c r="F24" s="154" t="s">
+      <c r="F24" s="156" t="s">
         <v>381</v>
       </c>
       <c r="G24" s="12"/>
@@ -3118,15 +3118,15 @@
         <f>IF(LEN(C25)=0,"",COUNTA($C$14:C25))</f>
         <v>7</v>
       </c>
-      <c r="B25" s="151"/>
+      <c r="B25" s="146"/>
       <c r="C25" s="41" t="s">
         <v>43</v>
       </c>
       <c r="D25" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="E25" s="153"/>
-      <c r="F25" s="155"/>
+      <c r="E25" s="185"/>
+      <c r="F25" s="157"/>
       <c r="G25" s="12"/>
     </row>
     <row r="26" spans="1:7" ht="49.5" x14ac:dyDescent="0.25">
@@ -3168,12 +3168,12 @@
       <c r="G27" s="12"/>
     </row>
     <row r="28" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A28" s="122" t="s">
+      <c r="A28" s="161" t="s">
         <v>26</v>
       </c>
-      <c r="B28" s="123"/>
-      <c r="C28" s="123"/>
-      <c r="D28" s="124"/>
+      <c r="B28" s="163"/>
+      <c r="C28" s="163"/>
+      <c r="D28" s="162"/>
       <c r="E28" s="121">
         <f>SUM(E14:E27)</f>
         <v>564000</v>
@@ -3214,10 +3214,10 @@
       <c r="A32" s="61" t="s">
         <v>259</v>
       </c>
-      <c r="B32" s="122" t="s">
+      <c r="B32" s="161" t="s">
         <v>2</v>
       </c>
-      <c r="C32" s="124"/>
+      <c r="C32" s="162"/>
       <c r="D32" s="61" t="s">
         <v>3</v>
       </c>
@@ -3325,7 +3325,7 @@
         <f>IF(LEN(C38)=0,"",COUNTA($C$34:C38))</f>
         <v>5</v>
       </c>
-      <c r="B38" s="139" t="s">
+      <c r="B38" s="143" t="s">
         <v>44</v>
       </c>
       <c r="C38" s="41" t="s">
@@ -3347,7 +3347,7 @@
         <f>IF(LEN(C39)=0,"",COUNTA($C$34:C39))</f>
         <v>6</v>
       </c>
-      <c r="B39" s="141"/>
+      <c r="B39" s="145"/>
       <c r="C39" s="41" t="s">
         <v>274</v>
       </c>
@@ -3367,7 +3367,7 @@
         <f>IF(LEN(C40)=0,"",COUNTA($C$34:C40))</f>
         <v>7</v>
       </c>
-      <c r="B40" s="156" t="s">
+      <c r="B40" s="153" t="s">
         <v>60</v>
       </c>
       <c r="C40" s="41" t="s">
@@ -3379,7 +3379,7 @@
       <c r="E40" s="69">
         <v>41000</v>
       </c>
-      <c r="F40" s="157" t="s">
+      <c r="F40" s="128" t="s">
         <v>377</v>
       </c>
       <c r="G40" s="12"/>
@@ -3389,7 +3389,7 @@
         <f>IF(LEN(C41)=0,"",COUNTA($C$34:C41))</f>
         <v>8</v>
       </c>
-      <c r="B41" s="156"/>
+      <c r="B41" s="153"/>
       <c r="C41" s="41" t="s">
         <v>63</v>
       </c>
@@ -3399,7 +3399,7 @@
       <c r="E41" s="69">
         <v>59000</v>
       </c>
-      <c r="F41" s="158"/>
+      <c r="F41" s="129"/>
       <c r="G41" s="12"/>
     </row>
     <row r="42" spans="1:7" ht="33" x14ac:dyDescent="0.25">
@@ -3407,7 +3407,7 @@
         <f>IF(LEN(C42)=0,"",COUNTA($C$34:C42))</f>
         <v>9</v>
       </c>
-      <c r="B42" s="156"/>
+      <c r="B42" s="153"/>
       <c r="C42" s="41" t="s">
         <v>65</v>
       </c>
@@ -3417,7 +3417,7 @@
       <c r="E42" s="69">
         <v>59000</v>
       </c>
-      <c r="F42" s="158"/>
+      <c r="F42" s="129"/>
       <c r="G42" s="12"/>
     </row>
     <row r="43" spans="1:7" ht="33" x14ac:dyDescent="0.25">
@@ -3425,7 +3425,7 @@
         <f>IF(LEN(C43)=0,"",COUNTA($C$34:C43))</f>
         <v>10</v>
       </c>
-      <c r="B43" s="156"/>
+      <c r="B43" s="153"/>
       <c r="C43" s="41" t="s">
         <v>67</v>
       </c>
@@ -3435,7 +3435,7 @@
       <c r="E43" s="69">
         <v>47000</v>
       </c>
-      <c r="F43" s="158"/>
+      <c r="F43" s="129"/>
       <c r="G43" s="12"/>
     </row>
     <row r="44" spans="1:7" ht="33" x14ac:dyDescent="0.25">
@@ -3443,7 +3443,7 @@
         <f>IF(LEN(C44)=0,"",COUNTA($C$34:C44))</f>
         <v>11</v>
       </c>
-      <c r="B44" s="156"/>
+      <c r="B44" s="153"/>
       <c r="C44" s="41" t="s">
         <v>69</v>
       </c>
@@ -3453,7 +3453,7 @@
       <c r="E44" s="69">
         <v>41000</v>
       </c>
-      <c r="F44" s="159"/>
+      <c r="F44" s="130"/>
       <c r="G44" s="12"/>
     </row>
     <row r="45" spans="1:7" ht="33" x14ac:dyDescent="0.25">
@@ -3481,7 +3481,7 @@
         <f>IF(LEN(C46)=0,"",COUNTA($C$34:C46))</f>
         <v>13</v>
       </c>
-      <c r="B46" s="139" t="s">
+      <c r="B46" s="143" t="s">
         <v>277</v>
       </c>
       <c r="C46" s="35" t="s">
@@ -3493,7 +3493,7 @@
       <c r="E46" s="72">
         <v>62000</v>
       </c>
-      <c r="F46" s="157" t="s">
+      <c r="F46" s="128" t="s">
         <v>378</v>
       </c>
       <c r="G46" s="12"/>
@@ -3503,7 +3503,7 @@
         <f>IF(LEN(C47)=0,"",COUNTA($C$34:C47))</f>
         <v>14</v>
       </c>
-      <c r="B47" s="140"/>
+      <c r="B47" s="144"/>
       <c r="C47" s="35" t="s">
         <v>196</v>
       </c>
@@ -3513,7 +3513,7 @@
       <c r="E47" s="72">
         <v>165000</v>
       </c>
-      <c r="F47" s="158"/>
+      <c r="F47" s="129"/>
       <c r="G47" s="12"/>
     </row>
     <row r="48" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
@@ -3521,7 +3521,7 @@
         <f>IF(LEN(C48)=0,"",COUNTA($C$34:C48))</f>
         <v>15</v>
       </c>
-      <c r="B48" s="141"/>
+      <c r="B48" s="145"/>
       <c r="C48" s="35" t="s">
         <v>201</v>
       </c>
@@ -3531,7 +3531,7 @@
       <c r="E48" s="72">
         <v>116000</v>
       </c>
-      <c r="F48" s="159"/>
+      <c r="F48" s="130"/>
       <c r="G48" s="12"/>
     </row>
     <row r="49" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
@@ -3539,7 +3539,7 @@
         <f>IF(LEN(C49)=0,"",COUNTA($C$34:C49))</f>
         <v>16</v>
       </c>
-      <c r="B49" s="139" t="s">
+      <c r="B49" s="143" t="s">
         <v>272</v>
       </c>
       <c r="C49" s="35" t="s">
@@ -3559,7 +3559,7 @@
         <f>IF(LEN(C50)=0,"",COUNTA($C$34:C50))</f>
         <v>17</v>
       </c>
-      <c r="B50" s="140"/>
+      <c r="B50" s="144"/>
       <c r="C50" s="35" t="s">
         <v>269</v>
       </c>
@@ -3569,7 +3569,7 @@
       <c r="E50" s="72">
         <v>130000</v>
       </c>
-      <c r="F50" s="157" t="s">
+      <c r="F50" s="128" t="s">
         <v>378</v>
       </c>
       <c r="G50" s="12"/>
@@ -3579,7 +3579,7 @@
         <f>IF(LEN(C51)=0,"",COUNTA($C$34:C51))</f>
         <v>18</v>
       </c>
-      <c r="B51" s="140"/>
+      <c r="B51" s="144"/>
       <c r="C51" s="35" t="s">
         <v>270</v>
       </c>
@@ -3589,7 +3589,7 @@
       <c r="E51" s="72">
         <v>120000</v>
       </c>
-      <c r="F51" s="158"/>
+      <c r="F51" s="129"/>
       <c r="G51" s="12"/>
     </row>
     <row r="52" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
@@ -3597,7 +3597,7 @@
         <f>IF(LEN(C52)=0,"",COUNTA($C$34:C52))</f>
         <v>19</v>
       </c>
-      <c r="B52" s="141"/>
+      <c r="B52" s="145"/>
       <c r="C52" s="35" t="s">
         <v>271</v>
       </c>
@@ -3607,7 +3607,7 @@
       <c r="E52" s="72">
         <v>282000</v>
       </c>
-      <c r="F52" s="159"/>
+      <c r="F52" s="130"/>
       <c r="G52" s="12"/>
     </row>
     <row r="53" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
@@ -3635,7 +3635,7 @@
         <f>IF(LEN(C54)=0,"",COUNTA($C$34:C54))</f>
         <v>21</v>
       </c>
-      <c r="B54" s="165" t="s">
+      <c r="B54" s="137" t="s">
         <v>130</v>
       </c>
       <c r="C54" s="35" t="s">
@@ -3647,7 +3647,7 @@
       <c r="E54" s="72">
         <v>71000</v>
       </c>
-      <c r="F54" s="154" t="s">
+      <c r="F54" s="156" t="s">
         <v>380</v>
       </c>
       <c r="G54" s="12"/>
@@ -3657,7 +3657,7 @@
         <f>IF(LEN(C55)=0,"",COUNTA($C$34:C55))</f>
         <v>22</v>
       </c>
-      <c r="B55" s="166"/>
+      <c r="B55" s="138"/>
       <c r="C55" s="35" t="s">
         <v>133</v>
       </c>
@@ -3667,7 +3667,7 @@
       <c r="E55" s="68">
         <v>138000</v>
       </c>
-      <c r="F55" s="155"/>
+      <c r="F55" s="157"/>
       <c r="G55" s="12"/>
     </row>
     <row r="56" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
@@ -3695,7 +3695,7 @@
         <f>IF(LEN(C57)=0,"",COUNTA($C$34:C57))</f>
         <v>24</v>
       </c>
-      <c r="B57" s="167" t="s">
+      <c r="B57" s="158" t="s">
         <v>205</v>
       </c>
       <c r="C57" s="35" t="s">
@@ -3707,7 +3707,7 @@
       <c r="E57" s="72">
         <v>30000</v>
       </c>
-      <c r="F57" s="168" t="s">
+      <c r="F57" s="159" t="s">
         <v>382</v>
       </c>
       <c r="G57" s="13"/>
@@ -3717,7 +3717,7 @@
         <f>IF(LEN(C58)=0,"",COUNTA($C$34:C58))</f>
         <v>25</v>
       </c>
-      <c r="B58" s="167"/>
+      <c r="B58" s="158"/>
       <c r="C58" s="35" t="s">
         <v>278</v>
       </c>
@@ -3727,16 +3727,16 @@
       <c r="E58" s="72">
         <v>20000</v>
       </c>
-      <c r="F58" s="169"/>
+      <c r="F58" s="160"/>
       <c r="G58" s="13"/>
     </row>
     <row r="59" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A59" s="170" t="s">
+      <c r="A59" s="131" t="s">
         <v>208</v>
       </c>
-      <c r="B59" s="171"/>
-      <c r="C59" s="171"/>
-      <c r="D59" s="172"/>
+      <c r="B59" s="132"/>
+      <c r="C59" s="132"/>
+      <c r="D59" s="133"/>
       <c r="E59" s="66"/>
       <c r="F59" s="67"/>
       <c r="G59" s="12"/>
@@ -3746,7 +3746,7 @@
         <f>IF(LEN(C60)=0,"",COUNTA($C$34:C60))</f>
         <v>26</v>
       </c>
-      <c r="B60" s="160" t="s">
+      <c r="B60" s="147" t="s">
         <v>260</v>
       </c>
       <c r="C60" s="73" t="s">
@@ -3766,7 +3766,7 @@
         <f>IF(LEN(C61)=0,"",COUNTA($C$34:C61))</f>
         <v>27</v>
       </c>
-      <c r="B61" s="161"/>
+      <c r="B61" s="148"/>
       <c r="C61" s="73" t="s">
         <v>83</v>
       </c>
@@ -3784,7 +3784,7 @@
         <f>IF(LEN(C62)=0,"",COUNTA($C$34:C62))</f>
         <v>28</v>
       </c>
-      <c r="B62" s="161"/>
+      <c r="B62" s="148"/>
       <c r="C62" s="73" t="s">
         <v>85</v>
       </c>
@@ -3802,7 +3802,7 @@
         <f>IF(LEN(C63)=0,"",COUNTA($C$34:C63))</f>
         <v>29</v>
       </c>
-      <c r="B63" s="161"/>
+      <c r="B63" s="148"/>
       <c r="C63" s="73" t="s">
         <v>79</v>
       </c>
@@ -3820,7 +3820,7 @@
         <f>IF(LEN(C64)=0,"",COUNTA($C$34:C64))</f>
         <v>30</v>
       </c>
-      <c r="B64" s="161"/>
+      <c r="B64" s="148"/>
       <c r="C64" s="73" t="s">
         <v>93</v>
       </c>
@@ -3838,7 +3838,7 @@
         <f>IF(LEN(C65)=0,"",COUNTA($C$34:C65))</f>
         <v>31</v>
       </c>
-      <c r="B65" s="161"/>
+      <c r="B65" s="148"/>
       <c r="C65" s="73" t="s">
         <v>80</v>
       </c>
@@ -3856,7 +3856,7 @@
         <f>IF(LEN(C66)=0,"",COUNTA($C$34:C66))</f>
         <v>32</v>
       </c>
-      <c r="B66" s="161"/>
+      <c r="B66" s="148"/>
       <c r="C66" s="73" t="s">
         <v>82</v>
       </c>
@@ -3876,7 +3876,7 @@
         <f>IF(LEN(C67)=0,"",COUNTA($C$34:C67))</f>
         <v>33</v>
       </c>
-      <c r="B67" s="161"/>
+      <c r="B67" s="148"/>
       <c r="C67" s="75" t="s">
         <v>234</v>
       </c>
@@ -3894,7 +3894,7 @@
         <f>IF(LEN(C68)=0,"",COUNTA($C$34:C68))</f>
         <v>34</v>
       </c>
-      <c r="B68" s="161"/>
+      <c r="B68" s="148"/>
       <c r="C68" s="73" t="s">
         <v>73</v>
       </c>
@@ -3914,7 +3914,7 @@
         <f>IF(LEN(C69)=0,"",COUNTA($C$34:C69))</f>
         <v>35</v>
       </c>
-      <c r="B69" s="161"/>
+      <c r="B69" s="148"/>
       <c r="C69" s="73" t="s">
         <v>75</v>
       </c>
@@ -3932,7 +3932,7 @@
         <f>IF(LEN(C70)=0,"",COUNTA($C$34:C70))</f>
         <v>36</v>
       </c>
-      <c r="B70" s="161"/>
+      <c r="B70" s="148"/>
       <c r="C70" s="73" t="s">
         <v>77</v>
       </c>
@@ -3950,7 +3950,7 @@
         <f>IF(LEN(C71)=0,"",COUNTA($C$34:C71))</f>
         <v>37</v>
       </c>
-      <c r="B71" s="161"/>
+      <c r="B71" s="148"/>
       <c r="C71" s="73" t="s">
         <v>87</v>
       </c>
@@ -3968,7 +3968,7 @@
         <f>IF(LEN(C72)=0,"",COUNTA($C$34:C72))</f>
         <v>38</v>
       </c>
-      <c r="B72" s="162"/>
+      <c r="B72" s="149"/>
       <c r="C72" s="73" t="s">
         <v>95</v>
       </c>
@@ -3986,19 +3986,19 @@
         <f>IF(LEN(C73)=0,"",COUNTA($C$34:C73))</f>
         <v>39</v>
       </c>
-      <c r="B73" s="160" t="s">
+      <c r="B73" s="147" t="s">
         <v>90</v>
       </c>
       <c r="C73" s="73" t="s">
         <v>89</v>
       </c>
-      <c r="D73" s="173" t="s">
+      <c r="D73" s="150" t="s">
         <v>396</v>
       </c>
       <c r="E73" s="39">
         <v>137000</v>
       </c>
-      <c r="F73" s="157" t="s">
+      <c r="F73" s="128" t="s">
         <v>379</v>
       </c>
       <c r="G73" s="13"/>
@@ -4008,15 +4008,15 @@
         <f>IF(LEN(C74)=0,"",COUNTA($C$34:C74))</f>
         <v>40</v>
       </c>
-      <c r="B74" s="161"/>
+      <c r="B74" s="148"/>
       <c r="C74" s="73" t="s">
         <v>91</v>
       </c>
-      <c r="D74" s="174"/>
+      <c r="D74" s="151"/>
       <c r="E74" s="39">
         <v>137000</v>
       </c>
-      <c r="F74" s="158"/>
+      <c r="F74" s="129"/>
       <c r="G74" s="13"/>
     </row>
     <row r="75" spans="1:7" s="14" customFormat="1" ht="33" x14ac:dyDescent="0.25">
@@ -4024,15 +4024,15 @@
         <f>IF(LEN(C75)=0,"",COUNTA($C$34:C75))</f>
         <v>41</v>
       </c>
-      <c r="B75" s="162"/>
+      <c r="B75" s="149"/>
       <c r="C75" s="73" t="s">
         <v>92</v>
       </c>
-      <c r="D75" s="175"/>
+      <c r="D75" s="152"/>
       <c r="E75" s="39">
         <v>208000</v>
       </c>
-      <c r="F75" s="159"/>
+      <c r="F75" s="130"/>
       <c r="G75" s="13"/>
     </row>
     <row r="76" spans="1:7" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
@@ -4040,13 +4040,13 @@
         <f>IF(LEN(C76)=0,"",COUNTA($C$34:C76))</f>
         <v>42</v>
       </c>
-      <c r="B76" s="160" t="s">
+      <c r="B76" s="147" t="s">
         <v>397</v>
       </c>
       <c r="C76" s="73" t="s">
         <v>398</v>
       </c>
-      <c r="D76" s="163" t="s">
+      <c r="D76" s="154" t="s">
         <v>400</v>
       </c>
       <c r="E76" s="39">
@@ -4060,11 +4060,11 @@
         <f>IF(LEN(C77)=0,"",COUNTA($C$34:C77))</f>
         <v>43</v>
       </c>
-      <c r="B77" s="161"/>
+      <c r="B77" s="148"/>
       <c r="C77" s="73" t="s">
         <v>399</v>
       </c>
-      <c r="D77" s="164"/>
+      <c r="D77" s="155"/>
       <c r="E77" s="39">
         <v>323000</v>
       </c>
@@ -4076,7 +4076,7 @@
         <f>IF(LEN(C78)=0,"",COUNTA($C$34:C78))</f>
         <v>44</v>
       </c>
-      <c r="B78" s="161"/>
+      <c r="B78" s="148"/>
       <c r="C78" s="73" t="s">
         <v>402</v>
       </c>
@@ -4094,7 +4094,7 @@
         <f>IF(LEN(C79)=0,"",COUNTA($C$34:C79))</f>
         <v>45</v>
       </c>
-      <c r="B79" s="162"/>
+      <c r="B79" s="149"/>
       <c r="C79" s="73" t="s">
         <v>403</v>
       </c>
@@ -4108,12 +4108,12 @@
       <c r="G79" s="13"/>
     </row>
     <row r="80" spans="1:7" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A80" s="170" t="s">
+      <c r="A80" s="131" t="s">
         <v>207</v>
       </c>
-      <c r="B80" s="171"/>
-      <c r="C80" s="171"/>
-      <c r="D80" s="172"/>
+      <c r="B80" s="132"/>
+      <c r="C80" s="132"/>
+      <c r="D80" s="133"/>
       <c r="E80" s="66"/>
       <c r="F80" s="67"/>
       <c r="G80" s="13"/>
@@ -4123,7 +4123,7 @@
         <f>IF(LEN(C81)=0,"",COUNTA($C$34:C81))</f>
         <v>46</v>
       </c>
-      <c r="B81" s="156" t="s">
+      <c r="B81" s="153" t="s">
         <v>97</v>
       </c>
       <c r="C81" s="35" t="s">
@@ -4143,7 +4143,7 @@
         <f>IF(LEN(C82)=0,"",COUNTA($C$34:C82))</f>
         <v>47</v>
       </c>
-      <c r="B82" s="156"/>
+      <c r="B82" s="153"/>
       <c r="C82" s="35" t="s">
         <v>100</v>
       </c>
@@ -4161,7 +4161,7 @@
         <f>IF(LEN(C83)=0,"",COUNTA($C$34:C83))</f>
         <v>48</v>
       </c>
-      <c r="B83" s="156"/>
+      <c r="B83" s="153"/>
       <c r="C83" s="35" t="s">
         <v>102</v>
       </c>
@@ -4181,7 +4181,7 @@
         <f>IF(LEN(C84)=0,"",COUNTA($C$34:C84))</f>
         <v>49</v>
       </c>
-      <c r="B84" s="156"/>
+      <c r="B84" s="153"/>
       <c r="C84" s="35" t="s">
         <v>105</v>
       </c>
@@ -4201,7 +4201,7 @@
         <f>IF(LEN(C85)=0,"",COUNTA($C$34:C85))</f>
         <v>50</v>
       </c>
-      <c r="B85" s="156"/>
+      <c r="B85" s="153"/>
       <c r="C85" s="35" t="s">
         <v>405</v>
       </c>
@@ -4219,7 +4219,7 @@
         <f>IF(LEN(C86)=0,"",COUNTA($C$34:C86))</f>
         <v>51</v>
       </c>
-      <c r="B86" s="156"/>
+      <c r="B86" s="153"/>
       <c r="C86" s="35" t="s">
         <v>107</v>
       </c>
@@ -4239,7 +4239,7 @@
         <f>IF(LEN(C87)=0,"",COUNTA($C$34:C87))</f>
         <v>52</v>
       </c>
-      <c r="B87" s="156"/>
+      <c r="B87" s="153"/>
       <c r="C87" s="35" t="s">
         <v>110</v>
       </c>
@@ -4259,7 +4259,7 @@
         <f>IF(LEN(C88)=0,"",COUNTA($C$34:C88))</f>
         <v>53</v>
       </c>
-      <c r="B88" s="156"/>
+      <c r="B88" s="153"/>
       <c r="C88" s="35" t="s">
         <v>113</v>
       </c>
@@ -4279,7 +4279,7 @@
         <f>IF(LEN(C89)=0,"",COUNTA($C$34:C89))</f>
         <v>54</v>
       </c>
-      <c r="B89" s="156" t="s">
+      <c r="B89" s="153" t="s">
         <v>116</v>
       </c>
       <c r="C89" s="35" t="s">
@@ -4299,7 +4299,7 @@
         <f>IF(LEN(C90)=0,"",COUNTA($C$34:C90))</f>
         <v>55</v>
       </c>
-      <c r="B90" s="156"/>
+      <c r="B90" s="153"/>
       <c r="C90" s="35" t="s">
         <v>119</v>
       </c>
@@ -4317,7 +4317,7 @@
         <f>IF(LEN(C91)=0,"",COUNTA($C$34:C91))</f>
         <v>56</v>
       </c>
-      <c r="B91" s="165" t="s">
+      <c r="B91" s="137" t="s">
         <v>121</v>
       </c>
       <c r="C91" s="35" t="s">
@@ -4337,7 +4337,7 @@
         <f>IF(LEN(C92)=0,"",COUNTA($C$34:C92))</f>
         <v>57</v>
       </c>
-      <c r="B92" s="176"/>
+      <c r="B92" s="139"/>
       <c r="C92" s="35" t="s">
         <v>388</v>
       </c>
@@ -4355,7 +4355,7 @@
         <f>IF(LEN(C93)=0,"",COUNTA($C$34:C93))</f>
         <v>58</v>
       </c>
-      <c r="B93" s="166"/>
+      <c r="B93" s="138"/>
       <c r="C93" s="35" t="s">
         <v>125</v>
       </c>
@@ -4369,12 +4369,12 @@
       <c r="G93" s="12"/>
     </row>
     <row r="94" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A94" s="170" t="s">
+      <c r="A94" s="131" t="s">
         <v>261</v>
       </c>
-      <c r="B94" s="171"/>
-      <c r="C94" s="171"/>
-      <c r="D94" s="172"/>
+      <c r="B94" s="132"/>
+      <c r="C94" s="132"/>
+      <c r="D94" s="133"/>
       <c r="E94" s="77"/>
       <c r="F94" s="67"/>
       <c r="G94" s="12"/>
@@ -4384,7 +4384,7 @@
         <f>IF(LEN(C95)=0,"",COUNTA($C$34:C95))</f>
         <v>59</v>
       </c>
-      <c r="B95" s="139" t="s">
+      <c r="B95" s="143" t="s">
         <v>240</v>
       </c>
       <c r="C95" s="35" t="s">
@@ -4404,7 +4404,7 @@
         <f>IF(LEN(C96)=0,"",COUNTA($C$34:C96))</f>
         <v>60</v>
       </c>
-      <c r="B96" s="141"/>
+      <c r="B96" s="145"/>
       <c r="C96" s="35" t="s">
         <v>239</v>
       </c>
@@ -4422,7 +4422,7 @@
         <f>IF(LEN(C97)=0,"",COUNTA($C$34:C97))</f>
         <v>61</v>
       </c>
-      <c r="B97" s="165" t="s">
+      <c r="B97" s="137" t="s">
         <v>243</v>
       </c>
       <c r="C97" s="35" t="s">
@@ -4440,7 +4440,7 @@
         <f>IF(LEN(C98)=0,"",COUNTA($C$34:C98))</f>
         <v>62</v>
       </c>
-      <c r="B98" s="166"/>
+      <c r="B98" s="138"/>
       <c r="C98" s="35" t="s">
         <v>242</v>
       </c>
@@ -4476,7 +4476,7 @@
         <f>IF(LEN(C100)=0,"",COUNTA($C$34:C100))</f>
         <v>64</v>
       </c>
-      <c r="B100" s="165" t="s">
+      <c r="B100" s="137" t="s">
         <v>258</v>
       </c>
       <c r="C100" s="35" t="s">
@@ -4494,7 +4494,7 @@
         <f>IF(LEN(C101)=0,"",COUNTA($C$34:C101))</f>
         <v>65</v>
       </c>
-      <c r="B101" s="176"/>
+      <c r="B101" s="139"/>
       <c r="C101" s="35" t="s">
         <v>245</v>
       </c>
@@ -4510,7 +4510,7 @@
         <f>IF(LEN(C102)=0,"",COUNTA($C$34:C102))</f>
         <v>66</v>
       </c>
-      <c r="B102" s="176"/>
+      <c r="B102" s="139"/>
       <c r="C102" s="35" t="s">
         <v>246</v>
       </c>
@@ -4526,7 +4526,7 @@
         <f>IF(LEN(C103)=0,"",COUNTA($C$34:C103))</f>
         <v>67</v>
       </c>
-      <c r="B103" s="176"/>
+      <c r="B103" s="139"/>
       <c r="C103" s="35" t="s">
         <v>247</v>
       </c>
@@ -4542,7 +4542,7 @@
         <f>IF(LEN(C104)=0,"",COUNTA($C$34:C104))</f>
         <v>68</v>
       </c>
-      <c r="B104" s="176"/>
+      <c r="B104" s="139"/>
       <c r="C104" s="35" t="s">
         <v>248</v>
       </c>
@@ -4558,7 +4558,7 @@
         <f>IF(LEN(C105)=0,"",COUNTA($C$34:C105))</f>
         <v>69</v>
       </c>
-      <c r="B105" s="176"/>
+      <c r="B105" s="139"/>
       <c r="C105" s="35" t="s">
         <v>249</v>
       </c>
@@ -4574,7 +4574,7 @@
         <f>IF(LEN(C106)=0,"",COUNTA($C$34:C106))</f>
         <v>70</v>
       </c>
-      <c r="B106" s="176"/>
+      <c r="B106" s="139"/>
       <c r="C106" s="35" t="s">
         <v>250</v>
       </c>
@@ -4590,7 +4590,7 @@
         <f>IF(LEN(C107)=0,"",COUNTA($C$34:C107))</f>
         <v>71</v>
       </c>
-      <c r="B107" s="176"/>
+      <c r="B107" s="139"/>
       <c r="C107" s="35" t="s">
         <v>251</v>
       </c>
@@ -4606,7 +4606,7 @@
         <f>IF(LEN(C108)=0,"",COUNTA($C$34:C108))</f>
         <v>72</v>
       </c>
-      <c r="B108" s="176"/>
+      <c r="B108" s="139"/>
       <c r="C108" s="35" t="s">
         <v>252</v>
       </c>
@@ -4622,7 +4622,7 @@
         <f>IF(LEN(C109)=0,"",COUNTA($C$34:C109))</f>
         <v>73</v>
       </c>
-      <c r="B109" s="176"/>
+      <c r="B109" s="139"/>
       <c r="C109" s="35" t="s">
         <v>253</v>
       </c>
@@ -4638,7 +4638,7 @@
         <f>IF(LEN(C110)=0,"",COUNTA($C$34:C110))</f>
         <v>74</v>
       </c>
-      <c r="B110" s="176"/>
+      <c r="B110" s="139"/>
       <c r="C110" s="35" t="s">
         <v>254</v>
       </c>
@@ -4654,7 +4654,7 @@
         <f>IF(LEN(C111)=0,"",COUNTA($C$34:C111))</f>
         <v>75</v>
       </c>
-      <c r="B111" s="176"/>
+      <c r="B111" s="139"/>
       <c r="C111" s="35" t="s">
         <v>255</v>
       </c>
@@ -4670,7 +4670,7 @@
         <f>IF(LEN(C112)=0,"",COUNTA($C$34:C112))</f>
         <v>76</v>
       </c>
-      <c r="B112" s="176"/>
+      <c r="B112" s="139"/>
       <c r="C112" s="35" t="s">
         <v>256</v>
       </c>
@@ -4686,7 +4686,7 @@
         <f>IF(LEN(C113)=0,"",COUNTA($C$34:C113))</f>
         <v>77</v>
       </c>
-      <c r="B113" s="166"/>
+      <c r="B113" s="138"/>
       <c r="C113" s="35" t="s">
         <v>257</v>
       </c>
@@ -4698,12 +4698,12 @@
       <c r="G113" s="12"/>
     </row>
     <row r="114" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A114" s="170" t="s">
+      <c r="A114" s="131" t="s">
         <v>226</v>
       </c>
-      <c r="B114" s="171"/>
-      <c r="C114" s="171"/>
-      <c r="D114" s="172"/>
+      <c r="B114" s="132"/>
+      <c r="C114" s="132"/>
+      <c r="D114" s="133"/>
       <c r="E114" s="66"/>
       <c r="F114" s="67"/>
       <c r="G114" s="12"/>
@@ -4749,12 +4749,12 @@
       <c r="G116" s="12"/>
     </row>
     <row r="117" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A117" s="177" t="s">
+      <c r="A117" s="127" t="s">
         <v>262</v>
       </c>
-      <c r="B117" s="177"/>
-      <c r="C117" s="177"/>
-      <c r="D117" s="177"/>
+      <c r="B117" s="127"/>
+      <c r="C117" s="127"/>
+      <c r="D117" s="127"/>
       <c r="E117" s="77"/>
       <c r="F117" s="67"/>
       <c r="G117" s="12"/>
@@ -4764,7 +4764,7 @@
         <f>IF(LEN(C118)=0,"",COUNTA($C$34:C118))</f>
         <v>80</v>
       </c>
-      <c r="B118" s="178" t="s">
+      <c r="B118" s="140" t="s">
         <v>204</v>
       </c>
       <c r="C118" s="36" t="s">
@@ -4784,7 +4784,7 @@
         <f>IF(LEN(C119)=0,"",COUNTA($C$34:C119))</f>
         <v>81</v>
       </c>
-      <c r="B119" s="179"/>
+      <c r="B119" s="141"/>
       <c r="C119" s="36" t="s">
         <v>34</v>
       </c>
@@ -4802,7 +4802,7 @@
         <f>IF(LEN(C120)=0,"",COUNTA($C$34:C120))</f>
         <v>82</v>
       </c>
-      <c r="B120" s="179"/>
+      <c r="B120" s="141"/>
       <c r="C120" s="36" t="s">
         <v>324</v>
       </c>
@@ -4820,7 +4820,7 @@
         <f>IF(LEN(C121)=0,"",COUNTA($C$34:C121))</f>
         <v>83</v>
       </c>
-      <c r="B121" s="179"/>
+      <c r="B121" s="141"/>
       <c r="C121" s="35" t="s">
         <v>407</v>
       </c>
@@ -4836,7 +4836,7 @@
         <f>IF(LEN(C122)=0,"",COUNTA($C$34:C122))</f>
         <v>84</v>
       </c>
-      <c r="B122" s="179"/>
+      <c r="B122" s="141"/>
       <c r="C122" s="35" t="s">
         <v>408</v>
       </c>
@@ -4852,7 +4852,7 @@
         <f>IF(LEN(C123)=0,"",COUNTA($C$34:C123))</f>
         <v>85</v>
       </c>
-      <c r="B123" s="179"/>
+      <c r="B123" s="141"/>
       <c r="C123" s="35" t="s">
         <v>409</v>
       </c>
@@ -4868,7 +4868,7 @@
         <f>IF(LEN(C124)=0,"",COUNTA($C$34:C124))</f>
         <v>86</v>
       </c>
-      <c r="B124" s="179"/>
+      <c r="B124" s="141"/>
       <c r="C124" s="36" t="s">
         <v>410</v>
       </c>
@@ -4886,7 +4886,7 @@
         <f>IF(LEN(C125)=0,"",COUNTA($C$34:C125))</f>
         <v>87</v>
       </c>
-      <c r="B125" s="179"/>
+      <c r="B125" s="141"/>
       <c r="C125" s="36" t="s">
         <v>138</v>
       </c>
@@ -4904,7 +4904,7 @@
         <f>IF(LEN(C126)=0,"",COUNTA($C$34:C126))</f>
         <v>88</v>
       </c>
-      <c r="B126" s="180"/>
+      <c r="B126" s="142"/>
       <c r="C126" s="36" t="s">
         <v>139</v>
       </c>
@@ -4922,7 +4922,7 @@
         <f>IF(LEN(C127)=0,"",COUNTA($C$34:C127))</f>
         <v>89</v>
       </c>
-      <c r="B127" s="139" t="s">
+      <c r="B127" s="143" t="s">
         <v>282</v>
       </c>
       <c r="C127" s="35" t="s">
@@ -4942,7 +4942,7 @@
         <f>IF(LEN(C128)=0,"",COUNTA($C$34:C128))</f>
         <v>90</v>
       </c>
-      <c r="B128" s="140"/>
+      <c r="B128" s="144"/>
       <c r="C128" s="35" t="s">
         <v>143</v>
       </c>
@@ -4960,7 +4960,7 @@
         <f>IF(LEN(C129)=0,"",COUNTA($C$34:C129))</f>
         <v>91</v>
       </c>
-      <c r="B129" s="140"/>
+      <c r="B129" s="144"/>
       <c r="C129" s="35" t="s">
         <v>392</v>
       </c>
@@ -4978,7 +4978,7 @@
         <f>IF(LEN(C130)=0,"",COUNTA($C$34:C130))</f>
         <v>92</v>
       </c>
-      <c r="B130" s="140"/>
+      <c r="B130" s="144"/>
       <c r="C130" s="35" t="s">
         <v>394</v>
       </c>
@@ -4996,7 +4996,7 @@
         <f>IF(LEN(C131)=0,"",COUNTA($C$34:C131))</f>
         <v>93</v>
       </c>
-      <c r="B131" s="140"/>
+      <c r="B131" s="144"/>
       <c r="C131" s="35" t="s">
         <v>369</v>
       </c>
@@ -5014,7 +5014,7 @@
         <f>IF(LEN(C132)=0,"",COUNTA($C$34:C132))</f>
         <v>94</v>
       </c>
-      <c r="B132" s="141"/>
+      <c r="B132" s="145"/>
       <c r="C132" s="35" t="s">
         <v>145</v>
       </c>
@@ -5030,7 +5030,7 @@
         <f>IF(LEN(C133)=0,"",COUNTA($C$34:C133))</f>
         <v>95</v>
       </c>
-      <c r="B133" s="140" t="s">
+      <c r="B133" s="144" t="s">
         <v>283</v>
       </c>
       <c r="C133" s="35" t="s">
@@ -5048,7 +5048,7 @@
         <f>IF(LEN(C134)=0,"",COUNTA($C$34:C134))</f>
         <v>96</v>
       </c>
-      <c r="B134" s="140"/>
+      <c r="B134" s="144"/>
       <c r="C134" s="35" t="s">
         <v>330</v>
       </c>
@@ -5066,7 +5066,7 @@
         <f>IF(LEN(C135)=0,"",COUNTA($C$34:C135))</f>
         <v>97</v>
       </c>
-      <c r="B135" s="140"/>
+      <c r="B135" s="144"/>
       <c r="C135" s="35" t="s">
         <v>151</v>
       </c>
@@ -5084,7 +5084,7 @@
         <f>IF(LEN(C136)=0,"",COUNTA($C$34:C136))</f>
         <v>98</v>
       </c>
-      <c r="B136" s="140"/>
+      <c r="B136" s="144"/>
       <c r="C136" s="35" t="s">
         <v>153</v>
       </c>
@@ -5102,7 +5102,7 @@
         <f>IF(LEN(C137)=0,"",COUNTA($C$34:C137))</f>
         <v>99</v>
       </c>
-      <c r="B137" s="140"/>
+      <c r="B137" s="144"/>
       <c r="C137" s="35" t="s">
         <v>155</v>
       </c>
@@ -5120,7 +5120,7 @@
         <f>IF(LEN(C138)=0,"",COUNTA($C$34:C138))</f>
         <v>100</v>
       </c>
-      <c r="B138" s="140"/>
+      <c r="B138" s="144"/>
       <c r="C138" s="35" t="s">
         <v>157</v>
       </c>
@@ -5138,7 +5138,7 @@
         <f>IF(LEN(C139)=0,"",COUNTA($C$34:C139))</f>
         <v>101</v>
       </c>
-      <c r="B139" s="140"/>
+      <c r="B139" s="144"/>
       <c r="C139" s="35" t="s">
         <v>158</v>
       </c>
@@ -5154,7 +5154,7 @@
         <f>IF(LEN(C140)=0,"",COUNTA($C$34:C140))</f>
         <v>102</v>
       </c>
-      <c r="B140" s="151" t="s">
+      <c r="B140" s="146" t="s">
         <v>304</v>
       </c>
       <c r="C140" s="35" t="s">
@@ -5176,7 +5176,7 @@
         <f>IF(LEN(C141)=0,"",COUNTA($C$34:C141))</f>
         <v>103</v>
       </c>
-      <c r="B141" s="151"/>
+      <c r="B141" s="146"/>
       <c r="C141" s="35" t="s">
         <v>342</v>
       </c>
@@ -5194,7 +5194,7 @@
         <f>IF(LEN(C142)=0,"",COUNTA($C$34:C142))</f>
         <v>104</v>
       </c>
-      <c r="B142" s="151"/>
+      <c r="B142" s="146"/>
       <c r="C142" s="35" t="s">
         <v>343</v>
       </c>
@@ -5214,7 +5214,7 @@
         <f>IF(LEN(C143)=0,"",COUNTA($C$34:C143))</f>
         <v>105</v>
       </c>
-      <c r="B143" s="151"/>
+      <c r="B143" s="146"/>
       <c r="C143" s="35" t="s">
         <v>344</v>
       </c>
@@ -5232,7 +5232,7 @@
         <f>IF(LEN(C144)=0,"",COUNTA($C$34:C144))</f>
         <v>106</v>
       </c>
-      <c r="B144" s="151"/>
+      <c r="B144" s="146"/>
       <c r="C144" s="35" t="s">
         <v>345</v>
       </c>
@@ -5250,7 +5250,7 @@
         <f>IF(LEN(C145)=0,"",COUNTA($C$34:C145))</f>
         <v>107</v>
       </c>
-      <c r="B145" s="151"/>
+      <c r="B145" s="146"/>
       <c r="C145" s="107" t="s">
         <v>372</v>
       </c>
@@ -5268,7 +5268,7 @@
         <f>IF(LEN(C146)=0,"",COUNTA($C$34:C146))</f>
         <v>108</v>
       </c>
-      <c r="B146" s="151"/>
+      <c r="B146" s="146"/>
       <c r="C146" s="35" t="s">
         <v>346</v>
       </c>
@@ -5286,7 +5286,7 @@
         <f>IF(LEN(C147)=0,"",COUNTA($C$34:C147))</f>
         <v>109</v>
       </c>
-      <c r="B147" s="151"/>
+      <c r="B147" s="146"/>
       <c r="C147" s="35" t="s">
         <v>347</v>
       </c>
@@ -5304,7 +5304,7 @@
         <f>IF(LEN(C148)=0,"",COUNTA($C$34:C148))</f>
         <v>110</v>
       </c>
-      <c r="B148" s="151"/>
+      <c r="B148" s="146"/>
       <c r="C148" s="35" t="s">
         <v>348</v>
       </c>
@@ -5322,7 +5322,7 @@
         <f>IF(LEN(C149)=0,"",COUNTA($C$34:C149))</f>
         <v>111</v>
       </c>
-      <c r="B149" s="151"/>
+      <c r="B149" s="146"/>
       <c r="C149" s="107" t="s">
         <v>371</v>
       </c>
@@ -5340,7 +5340,7 @@
         <f>IF(LEN(C150)=0,"",COUNTA($C$34:C150))</f>
         <v>112</v>
       </c>
-      <c r="B150" s="151"/>
+      <c r="B150" s="146"/>
       <c r="C150" s="35" t="s">
         <v>349</v>
       </c>
@@ -5360,7 +5360,7 @@
         <f>IF(LEN(C151)=0,"",COUNTA($C$34:C151))</f>
         <v>113</v>
       </c>
-      <c r="B151" s="151"/>
+      <c r="B151" s="146"/>
       <c r="C151" s="35" t="s">
         <v>350</v>
       </c>
@@ -5378,7 +5378,7 @@
         <f>IF(LEN(C152)=0,"",COUNTA($C$34:C152))</f>
         <v>114</v>
       </c>
-      <c r="B152" s="151"/>
+      <c r="B152" s="146"/>
       <c r="C152" s="35" t="s">
         <v>351</v>
       </c>
@@ -5396,7 +5396,7 @@
         <f>IF(LEN(C153)=0,"",COUNTA($C$34:C153))</f>
         <v>115</v>
       </c>
-      <c r="B153" s="151"/>
+      <c r="B153" s="146"/>
       <c r="C153" s="35" t="s">
         <v>352</v>
       </c>
@@ -5414,7 +5414,7 @@
         <f>IF(LEN(C154)=0,"",COUNTA($C$34:C154))</f>
         <v>116</v>
       </c>
-      <c r="B154" s="151"/>
+      <c r="B154" s="146"/>
       <c r="C154" s="35" t="s">
         <v>353</v>
       </c>
@@ -5432,7 +5432,7 @@
         <f>IF(LEN(C155)=0,"",COUNTA($C$34:C155))</f>
         <v>117</v>
       </c>
-      <c r="B155" s="151"/>
+      <c r="B155" s="146"/>
       <c r="C155" s="35" t="s">
         <v>354</v>
       </c>
@@ -5450,7 +5450,7 @@
         <f>IF(LEN(C156)=0,"",COUNTA($C$34:C156))</f>
         <v>118</v>
       </c>
-      <c r="B156" s="151"/>
+      <c r="B156" s="146"/>
       <c r="C156" s="35" t="s">
         <v>355</v>
       </c>
@@ -5468,7 +5468,7 @@
         <f>IF(LEN(C157)=0,"",COUNTA($C$34:C157))</f>
         <v>119</v>
       </c>
-      <c r="B157" s="151"/>
+      <c r="B157" s="146"/>
       <c r="C157" s="35" t="s">
         <v>356</v>
       </c>
@@ -5486,7 +5486,7 @@
         <f>IF(LEN(C158)=0,"",COUNTA($C$34:C158))</f>
         <v>120</v>
       </c>
-      <c r="B158" s="151"/>
+      <c r="B158" s="146"/>
       <c r="C158" s="35" t="s">
         <v>357</v>
       </c>
@@ -5504,7 +5504,7 @@
         <f>IF(LEN(C159)=0,"",COUNTA($C$34:C159))</f>
         <v>121</v>
       </c>
-      <c r="B159" s="151"/>
+      <c r="B159" s="146"/>
       <c r="C159" s="35" t="s">
         <v>358</v>
       </c>
@@ -5522,7 +5522,7 @@
         <f>IF(LEN(C160)=0,"",COUNTA($C$34:C160))</f>
         <v>122</v>
       </c>
-      <c r="B160" s="151"/>
+      <c r="B160" s="146"/>
       <c r="C160" s="35" t="s">
         <v>359</v>
       </c>
@@ -5540,7 +5540,7 @@
         <f>IF(LEN(C161)=0,"",COUNTA($C$34:C161))</f>
         <v>123</v>
       </c>
-      <c r="B161" s="151"/>
+      <c r="B161" s="146"/>
       <c r="C161" s="35" t="s">
         <v>360</v>
       </c>
@@ -5558,7 +5558,7 @@
         <f>IF(LEN(C162)=0,"",COUNTA($C$34:C162))</f>
         <v>124</v>
       </c>
-      <c r="B162" s="151"/>
+      <c r="B162" s="146"/>
       <c r="C162" s="35" t="s">
         <v>361</v>
       </c>
@@ -5576,7 +5576,7 @@
         <f>IF(LEN(C163)=0,"",COUNTA($C$34:C163))</f>
         <v>125</v>
       </c>
-      <c r="B163" s="151"/>
+      <c r="B163" s="146"/>
       <c r="C163" s="35" t="s">
         <v>362</v>
       </c>
@@ -5594,7 +5594,7 @@
         <f>IF(LEN(C164)=0,"",COUNTA($C$34:C164))</f>
         <v>126</v>
       </c>
-      <c r="B164" s="151"/>
+      <c r="B164" s="146"/>
       <c r="C164" s="35" t="s">
         <v>363</v>
       </c>
@@ -5610,7 +5610,7 @@
         <f>IF(LEN(C165)=0,"",COUNTA($C$34:C165))</f>
         <v>127</v>
       </c>
-      <c r="B165" s="151"/>
+      <c r="B165" s="146"/>
       <c r="C165" s="35" t="s">
         <v>364</v>
       </c>
@@ -5626,7 +5626,7 @@
         <f>IF(LEN(C166)=0,"",COUNTA($C$34:C166))</f>
         <v>128</v>
       </c>
-      <c r="B166" s="151"/>
+      <c r="B166" s="146"/>
       <c r="C166" s="35" t="s">
         <v>365</v>
       </c>
@@ -5644,7 +5644,7 @@
         <f>IF(LEN(C167)=0,"",COUNTA($C$34:C167))</f>
         <v>129</v>
       </c>
-      <c r="B167" s="151"/>
+      <c r="B167" s="146"/>
       <c r="C167" s="35" t="s">
         <v>366</v>
       </c>
@@ -5662,7 +5662,7 @@
         <f>IF(LEN(C168)=0,"",COUNTA($C$34:C168))</f>
         <v>130</v>
       </c>
-      <c r="B168" s="151"/>
+      <c r="B168" s="146"/>
       <c r="C168" s="35" t="s">
         <v>367</v>
       </c>
@@ -5675,12 +5675,12 @@
       <c r="F168" s="40"/>
       <c r="G168" s="12"/>
     </row>
-    <row r="169" spans="1:8" ht="49.5" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:8" ht="33" x14ac:dyDescent="0.25">
       <c r="A169" s="37">
         <f>IF(LEN(C169)=0,"",COUNTA($C$34:C169))</f>
         <v>131</v>
       </c>
-      <c r="B169" s="151"/>
+      <c r="B169" s="146"/>
       <c r="C169" s="35" t="s">
         <v>368</v>
       </c>
@@ -5694,12 +5694,12 @@
       <c r="G169" s="12"/>
     </row>
     <row r="170" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A170" s="177" t="s">
+      <c r="A170" s="127" t="s">
         <v>206</v>
       </c>
-      <c r="B170" s="177"/>
-      <c r="C170" s="177"/>
-      <c r="D170" s="177"/>
+      <c r="B170" s="127"/>
+      <c r="C170" s="127"/>
+      <c r="D170" s="127"/>
       <c r="E170" s="77"/>
       <c r="F170" s="67"/>
       <c r="G170" s="12"/>
@@ -5764,7 +5764,7 @@
         <f>IF(LEN(C174)=0,"",COUNTA($C$34:C174))</f>
         <v>135</v>
       </c>
-      <c r="B174" s="139" t="s">
+      <c r="B174" s="143" t="s">
         <v>203</v>
       </c>
       <c r="C174" s="35" t="s">
@@ -5783,7 +5783,7 @@
         <f>IF(LEN(C175)=0,"",COUNTA($C$34:C175))</f>
         <v>136</v>
       </c>
-      <c r="B175" s="141"/>
+      <c r="B175" s="145"/>
       <c r="C175" s="35" t="s">
         <v>224</v>
       </c>
@@ -5796,12 +5796,12 @@
       <c r="F175" s="40"/>
     </row>
     <row r="176" spans="1:8" s="16" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A176" s="170" t="s">
+      <c r="A176" s="131" t="s">
         <v>163</v>
       </c>
-      <c r="B176" s="171"/>
-      <c r="C176" s="171"/>
-      <c r="D176" s="172"/>
+      <c r="B176" s="132"/>
+      <c r="C176" s="132"/>
+      <c r="D176" s="133"/>
       <c r="E176" s="120"/>
       <c r="F176" s="62"/>
     </row>
@@ -5820,7 +5820,7 @@
       <c r="E177" s="83">
         <v>71000</v>
       </c>
-      <c r="F177" s="182" t="s">
+      <c r="F177" s="125" t="s">
         <v>383</v>
       </c>
     </row>
@@ -5839,15 +5839,15 @@
       <c r="E178" s="83">
         <v>86000</v>
       </c>
-      <c r="F178" s="183"/>
+      <c r="F178" s="126"/>
     </row>
     <row r="179" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A179" s="177" t="s">
+      <c r="A179" s="127" t="s">
         <v>168</v>
       </c>
-      <c r="B179" s="177"/>
-      <c r="C179" s="177"/>
-      <c r="D179" s="177"/>
+      <c r="B179" s="127"/>
+      <c r="C179" s="127"/>
+      <c r="D179" s="127"/>
       <c r="E179" s="77"/>
       <c r="F179" s="67"/>
       <c r="G179" s="12"/>
@@ -5867,7 +5867,7 @@
       <c r="E180" s="106">
         <v>1968000</v>
       </c>
-      <c r="F180" s="157" t="s">
+      <c r="F180" s="128" t="s">
         <v>325</v>
       </c>
       <c r="G180" s="12"/>
@@ -5887,7 +5887,7 @@
       <c r="E181" s="106">
         <v>2952000</v>
       </c>
-      <c r="F181" s="158"/>
+      <c r="F181" s="129"/>
       <c r="G181" s="12"/>
     </row>
     <row r="182" spans="1:7" ht="66" x14ac:dyDescent="0.25">
@@ -5905,7 +5905,7 @@
       <c r="E182" s="106">
         <v>4100000</v>
       </c>
-      <c r="F182" s="159"/>
+      <c r="F182" s="130"/>
       <c r="G182" s="12"/>
     </row>
     <row r="183" spans="1:7" ht="49.5" x14ac:dyDescent="0.25">
@@ -6001,17 +6001,17 @@
       <c r="G187" s="12"/>
     </row>
     <row r="188" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A188" s="177" t="s">
+      <c r="A188" s="127" t="s">
         <v>263</v>
       </c>
-      <c r="B188" s="177"/>
-      <c r="C188" s="177"/>
-      <c r="D188" s="177"/>
+      <c r="B188" s="127"/>
+      <c r="C188" s="127"/>
+      <c r="D188" s="127"/>
       <c r="E188" s="77"/>
       <c r="F188" s="67"/>
       <c r="G188" s="12"/>
     </row>
-    <row r="189" spans="1:7" ht="49.5" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:7" ht="33" x14ac:dyDescent="0.25">
       <c r="A189" s="37">
         <f>IF(LEN(C189)=0,"",COUNTA($C$34:C189))</f>
         <v>147</v>
@@ -6030,12 +6030,12 @@
       <c r="G189" s="12"/>
     </row>
     <row r="190" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A190" s="177" t="s">
+      <c r="A190" s="127" t="s">
         <v>233</v>
       </c>
-      <c r="B190" s="177"/>
-      <c r="C190" s="177"/>
-      <c r="D190" s="177"/>
+      <c r="B190" s="127"/>
+      <c r="C190" s="127"/>
+      <c r="D190" s="127"/>
       <c r="E190" s="77"/>
       <c r="F190" s="67"/>
       <c r="G190" s="12"/>
@@ -6221,12 +6221,12 @@
       <c r="G200" s="12"/>
     </row>
     <row r="201" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A201" s="170" t="s">
+      <c r="A201" s="131" t="s">
         <v>322</v>
       </c>
-      <c r="B201" s="171"/>
-      <c r="C201" s="171"/>
-      <c r="D201" s="172"/>
+      <c r="B201" s="132"/>
+      <c r="C201" s="132"/>
+      <c r="D201" s="133"/>
       <c r="E201" s="66"/>
       <c r="F201" s="67"/>
       <c r="G201" s="12"/>
@@ -6320,12 +6320,12 @@
       <c r="G206" s="12"/>
     </row>
     <row r="207" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A207" s="170" t="s">
+      <c r="A207" s="131" t="s">
         <v>221</v>
       </c>
-      <c r="B207" s="171"/>
-      <c r="C207" s="171"/>
-      <c r="D207" s="172"/>
+      <c r="B207" s="132"/>
+      <c r="C207" s="132"/>
+      <c r="D207" s="133"/>
       <c r="E207" s="66"/>
       <c r="F207" s="67"/>
       <c r="G207" s="12"/>
@@ -6385,12 +6385,12 @@
       <c r="G210" s="12"/>
     </row>
     <row r="211" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A211" s="170" t="s">
+      <c r="A211" s="131" t="s">
         <v>210</v>
       </c>
-      <c r="B211" s="171"/>
-      <c r="C211" s="171"/>
-      <c r="D211" s="172"/>
+      <c r="B211" s="132"/>
+      <c r="C211" s="132"/>
+      <c r="D211" s="133"/>
       <c r="E211" s="66"/>
       <c r="F211" s="67"/>
       <c r="G211" s="12"/>
@@ -6405,7 +6405,7 @@
         <v>211</v>
       </c>
       <c r="D212" s="35"/>
-      <c r="E212" s="145">
+      <c r="E212" s="134">
         <v>183000</v>
       </c>
       <c r="F212" s="40"/>
@@ -6421,7 +6421,7 @@
         <v>212</v>
       </c>
       <c r="D213" s="35"/>
-      <c r="E213" s="146"/>
+      <c r="E213" s="135"/>
       <c r="F213" s="40"/>
       <c r="G213" s="12"/>
     </row>
@@ -6435,7 +6435,7 @@
         <v>213</v>
       </c>
       <c r="D214" s="35"/>
-      <c r="E214" s="146"/>
+      <c r="E214" s="135"/>
       <c r="F214" s="40"/>
       <c r="G214" s="12"/>
     </row>
@@ -6449,17 +6449,17 @@
         <v>214</v>
       </c>
       <c r="D215" s="35"/>
-      <c r="E215" s="147"/>
+      <c r="E215" s="136"/>
       <c r="F215" s="40"/>
       <c r="G215" s="12"/>
     </row>
     <row r="216" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A216" s="170" t="s">
+      <c r="A216" s="131" t="s">
         <v>412</v>
       </c>
-      <c r="B216" s="171"/>
-      <c r="C216" s="171"/>
-      <c r="D216" s="172"/>
+      <c r="B216" s="132"/>
+      <c r="C216" s="132"/>
+      <c r="D216" s="133"/>
       <c r="E216" s="66"/>
       <c r="F216" s="67"/>
       <c r="G216" s="12"/>
@@ -6537,64 +6537,64 @@
       <c r="F221" s="93"/>
     </row>
     <row r="222" spans="1:7" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A222" s="181" t="s">
+      <c r="A222" s="124" t="s">
         <v>27</v>
       </c>
-      <c r="B222" s="181"/>
-      <c r="C222" s="181"/>
-      <c r="D222" s="181"/>
+      <c r="B222" s="124"/>
+      <c r="C222" s="124"/>
+      <c r="D222" s="124"/>
       <c r="E222" s="26"/>
       <c r="F222" s="94"/>
     </row>
     <row r="223" spans="1:7" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A223" s="95"/>
-      <c r="B223" s="184" t="s">
+      <c r="B223" s="122" t="s">
         <v>266</v>
       </c>
-      <c r="C223" s="184"/>
-      <c r="D223" s="184"/>
-      <c r="E223" s="184"/>
-      <c r="F223" s="184"/>
+      <c r="C223" s="122"/>
+      <c r="D223" s="122"/>
+      <c r="E223" s="122"/>
+      <c r="F223" s="122"/>
     </row>
     <row r="224" spans="1:7" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A224" s="95"/>
-      <c r="B224" s="184" t="s">
+      <c r="B224" s="122" t="s">
         <v>417</v>
       </c>
-      <c r="C224" s="184"/>
-      <c r="D224" s="184"/>
-      <c r="E224" s="184"/>
-      <c r="F224" s="184"/>
+      <c r="C224" s="122"/>
+      <c r="D224" s="122"/>
+      <c r="E224" s="122"/>
+      <c r="F224" s="122"/>
     </row>
     <row r="225" spans="1:6" s="2" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A225" s="96"/>
-      <c r="B225" s="184" t="s">
+      <c r="B225" s="122" t="s">
         <v>28</v>
       </c>
-      <c r="C225" s="184"/>
-      <c r="D225" s="184"/>
-      <c r="E225" s="184"/>
-      <c r="F225" s="184"/>
+      <c r="C225" s="122"/>
+      <c r="D225" s="122"/>
+      <c r="E225" s="122"/>
+      <c r="F225" s="122"/>
     </row>
     <row r="226" spans="1:6" s="17" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A226" s="97"/>
-      <c r="B226" s="185" t="s">
+      <c r="B226" s="123" t="s">
         <v>29</v>
       </c>
-      <c r="C226" s="185"/>
-      <c r="D226" s="185"/>
-      <c r="E226" s="185"/>
-      <c r="F226" s="185"/>
+      <c r="C226" s="123"/>
+      <c r="D226" s="123"/>
+      <c r="E226" s="123"/>
+      <c r="F226" s="123"/>
     </row>
     <row r="227" spans="1:6" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A227" s="94"/>
-      <c r="B227" s="184" t="s">
+      <c r="B227" s="122" t="s">
         <v>30</v>
       </c>
-      <c r="C227" s="184"/>
-      <c r="D227" s="184"/>
-      <c r="E227" s="184"/>
-      <c r="F227" s="184"/>
+      <c r="C227" s="122"/>
+      <c r="D227" s="122"/>
+      <c r="E227" s="122"/>
+      <c r="F227" s="122"/>
     </row>
     <row r="228" spans="1:6" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A228" s="94"/>
@@ -6658,58 +6658,6 @@
     </row>
   </sheetData>
   <mergeCells count="66">
-    <mergeCell ref="B223:F223"/>
-    <mergeCell ref="B224:F224"/>
-    <mergeCell ref="B225:F225"/>
-    <mergeCell ref="B226:F226"/>
-    <mergeCell ref="B227:F227"/>
-    <mergeCell ref="A222:D222"/>
-    <mergeCell ref="F177:F178"/>
-    <mergeCell ref="A179:D179"/>
-    <mergeCell ref="F180:F182"/>
-    <mergeCell ref="A188:D188"/>
-    <mergeCell ref="A190:D190"/>
-    <mergeCell ref="A201:D201"/>
-    <mergeCell ref="A207:D207"/>
-    <mergeCell ref="A211:D211"/>
-    <mergeCell ref="E212:E215"/>
-    <mergeCell ref="A216:D216"/>
-    <mergeCell ref="A176:D176"/>
-    <mergeCell ref="B97:B98"/>
-    <mergeCell ref="B100:B113"/>
-    <mergeCell ref="A114:D114"/>
-    <mergeCell ref="A117:D117"/>
-    <mergeCell ref="B118:B126"/>
-    <mergeCell ref="B127:B132"/>
-    <mergeCell ref="B133:B139"/>
-    <mergeCell ref="B140:B169"/>
-    <mergeCell ref="A170:D170"/>
-    <mergeCell ref="B174:B175"/>
-    <mergeCell ref="B95:B96"/>
-    <mergeCell ref="A59:D59"/>
-    <mergeCell ref="B60:B72"/>
-    <mergeCell ref="B73:B75"/>
-    <mergeCell ref="D73:D75"/>
-    <mergeCell ref="A80:D80"/>
-    <mergeCell ref="B81:B88"/>
-    <mergeCell ref="B89:B90"/>
-    <mergeCell ref="B91:B93"/>
-    <mergeCell ref="A94:D94"/>
-    <mergeCell ref="F73:F75"/>
-    <mergeCell ref="B76:B79"/>
-    <mergeCell ref="D76:D77"/>
-    <mergeCell ref="B49:B52"/>
-    <mergeCell ref="F50:F52"/>
-    <mergeCell ref="B54:B55"/>
-    <mergeCell ref="F54:F55"/>
-    <mergeCell ref="B57:B58"/>
-    <mergeCell ref="F57:F58"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="B40:B44"/>
-    <mergeCell ref="F40:F44"/>
-    <mergeCell ref="B46:B48"/>
-    <mergeCell ref="F46:F48"/>
     <mergeCell ref="A28:D28"/>
     <mergeCell ref="D1:F5"/>
     <mergeCell ref="A7:F7"/>
@@ -6724,6 +6672,58 @@
     <mergeCell ref="B24:B25"/>
     <mergeCell ref="E24:E25"/>
     <mergeCell ref="F24:F25"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="B40:B44"/>
+    <mergeCell ref="F40:F44"/>
+    <mergeCell ref="B46:B48"/>
+    <mergeCell ref="F46:F48"/>
+    <mergeCell ref="F73:F75"/>
+    <mergeCell ref="B76:B79"/>
+    <mergeCell ref="D76:D77"/>
+    <mergeCell ref="B49:B52"/>
+    <mergeCell ref="F50:F52"/>
+    <mergeCell ref="B54:B55"/>
+    <mergeCell ref="F54:F55"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="F57:F58"/>
+    <mergeCell ref="B95:B96"/>
+    <mergeCell ref="A59:D59"/>
+    <mergeCell ref="B60:B72"/>
+    <mergeCell ref="B73:B75"/>
+    <mergeCell ref="D73:D75"/>
+    <mergeCell ref="A80:D80"/>
+    <mergeCell ref="B81:B88"/>
+    <mergeCell ref="B89:B90"/>
+    <mergeCell ref="B91:B93"/>
+    <mergeCell ref="A94:D94"/>
+    <mergeCell ref="A176:D176"/>
+    <mergeCell ref="B97:B98"/>
+    <mergeCell ref="B100:B113"/>
+    <mergeCell ref="A114:D114"/>
+    <mergeCell ref="A117:D117"/>
+    <mergeCell ref="B118:B126"/>
+    <mergeCell ref="B127:B132"/>
+    <mergeCell ref="B133:B139"/>
+    <mergeCell ref="B140:B169"/>
+    <mergeCell ref="A170:D170"/>
+    <mergeCell ref="B174:B175"/>
+    <mergeCell ref="A222:D222"/>
+    <mergeCell ref="F177:F178"/>
+    <mergeCell ref="A179:D179"/>
+    <mergeCell ref="F180:F182"/>
+    <mergeCell ref="A188:D188"/>
+    <mergeCell ref="A190:D190"/>
+    <mergeCell ref="A201:D201"/>
+    <mergeCell ref="A207:D207"/>
+    <mergeCell ref="A211:D211"/>
+    <mergeCell ref="E212:E215"/>
+    <mergeCell ref="A216:D216"/>
+    <mergeCell ref="B223:F223"/>
+    <mergeCell ref="B224:F224"/>
+    <mergeCell ref="B225:F225"/>
+    <mergeCell ref="B226:F226"/>
+    <mergeCell ref="B227:F227"/>
   </mergeCells>
   <pageMargins left="0.35433070866141736" right="0.15748031496062992" top="0.23622047244094491" bottom="0.19685039370078741" header="0.15748031496062992" footer="0.15748031496062992"/>
   <pageSetup paperSize="9" scale="70" fitToHeight="0" orientation="landscape" r:id="rId1"/>
